--- a/SING_Practica_1/Datos.xlsx
+++ b/SING_Practica_1/Datos.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transactional_read-only" sheetId="1" r:id="rId1"/>
     <sheet name="Transactional_read-write" sheetId="2" r:id="rId2"/>
     <sheet name="NoTransactional_read-only" sheetId="3" r:id="rId3"/>
+    <sheet name="comparativa de las 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>Número de hilos</t>
   </si>
@@ -47,6 +48,15 @@
   </si>
   <si>
     <t>Coste</t>
+  </si>
+  <si>
+    <t>Tr_RO</t>
+  </si>
+  <si>
+    <t>Tr_RW</t>
+  </si>
+  <si>
+    <t>NonTr_RO</t>
   </si>
 </sst>
 </file>
@@ -92,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -115,11 +125,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -133,6 +229,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4115,6 +4235,662 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Transacciones totales </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> (comparativa de 3 casos)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$B$5:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Transacciones totales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$B$7:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>99999.608189999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99999.492748000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100001.05788400001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100003.96122000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100009.00303000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100380.06355199999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100416.899401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100198.07979999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100146.978516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100067.798964</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100036.212424</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100040.15980200001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100022.76066600002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100028.87972099999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100034.205246</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100030.284508</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100041.04955</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100055.22600899999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100051.77084</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100041.822139</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100035.021987</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100027.002867</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100032.620142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F947-4C04-AF01-54ED11CAAA85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$C$5:$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Transacciones totales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tr_RW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$C$7:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>100001.04828300001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100001.441124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100019.608545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100034.890188</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100039.11359399998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100087.958432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100115.11117999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100082.00991000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100074.08149200001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100043.89631500001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100043.804752</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100051.88645999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100054.727264</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100057.864632</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100042.75137600001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100053.79586999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100055.30773199999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>100045.13414400001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>100045.89783999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100047.136682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100054.743176</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100050.10683599999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100051.891617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F947-4C04-AF01-54ED11CAAA85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$D$5:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Transacciones totales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NonTr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$D$7:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>99999.994458000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100010.60425800001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100075.977957</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100169.60436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100583.95008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101708.840815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>105439.041648</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104009.33134600001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103579.30165400001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>103059.1969</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103971.913614</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>103125.236896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>103567.203068</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104257.204251</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>103763.58719999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>103409.89788600001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103398.242229</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103698.400754</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>103898.92032899999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>103131.82915800001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103734.41639400001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>103762.42267499999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103204.92670400001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F947-4C04-AF01-54ED11CAAA85}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="472544392"/>
+        <c:axId val="472543736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472544392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472543736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472543736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472544392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4664,6 +5440,1948 @@
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Speed-up</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> (comparativa de 3 casos)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$B$34:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4344486282693558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8630382009169582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.30350465687283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.680402434564694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.695989727021924</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.019896642207815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.30879916223704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27.300475736132093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.254426871457014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.217519685039367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.04441002146331</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.950126237850423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.020644382799844</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.863676668101032</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26.808792910496319</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.833585151416475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.798156783932672</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.740068922102449</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.819786628826588</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.809665098544443</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.751180018568654</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.493849626090704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C0C-4503-802C-C80600EF4781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tr_RW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$C$34:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1017792024854858</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2339846008842432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.806683210011464</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.160596332422559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.840858727577888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.892084840333691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.946989708762136</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.974559303227743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.150753198731014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.194264955358083</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.282172988545167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.149861121608346</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.844510144602626</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24.932185523541811</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25.925919076187469</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.322978208897808</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.926152971744074</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>26.084054169351838</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>26.088671717194643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>26.520962919212241</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.624159239563458</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.601855066024246</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C0C-4503-802C-C80600EF4781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$D$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NonTr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$D$34:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42922083637512104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20578465520315717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11452747624688732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.2010908275516409E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3491121544152272E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7730361788388476E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2648904843965189E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9711060731805541E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9706557222356936E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9330961410614712E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9523540673855115E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9642490489815689E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9431995956965901E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9480928546772527E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0346557903572321E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1023460600960971E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0900085523993967E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1247379200088053E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.0703291329671659E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.0779072413855836E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1278897180009396E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1674381605595409E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0C0C-4503-802C-C80600EF4781}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="485243520"/>
+        <c:axId val="485237944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="485243520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485237944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485237944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485243520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Coste </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(comparativa de 3 casos)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$B$62:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>412.02969999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338.49939999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>281.10320000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>352.75300000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352.61439999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>374.23400000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>452.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>482.95679999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>604.71600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>756.92000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>914.11800000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>978.47040000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1067.4089999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1227.0239999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1383.2279999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1535.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1845.0359999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1972.3136</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1997.1769999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2151.6179999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2217.9312</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3965.7345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEA9-4CFD-93AD-017368463C5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$C$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tr_RW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$C$62:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>574.75170000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>546.91920000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389.44159999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>405.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>488.08960000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>550.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>720.03000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>767.14880000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>951.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1187.7850000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1312.1100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1354.8543999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1498.7279999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1844.2080000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2183.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2660.2560000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2820.4288000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2863.991</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3034.0240000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3108.6143999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5509.4534999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EEA9-4CFD-93AD-017368463C5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$D$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NonTr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$D$62:$D$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>4974.0600000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23177.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72513.569999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173724.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>303256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>686217.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>922822.32000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1218799.8400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1506729.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1674398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1865423.34</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021733.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2181421.9700000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2366025.06</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2530819.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2622536.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2725647.57</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2897502.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3024482.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3240082.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3393710.46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3498503.1399999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3611858.3600000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EEA9-4CFD-93AD-017368463C5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="472496504"/>
+        <c:axId val="472494864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="472496504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472494864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="472494864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="472496504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Coste </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>(comparativa de 3 casos)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$B$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$B$89:$B$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2172243141346779</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4657595502292395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4129380821091038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1680402434564694</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1684993579388703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1009948321103906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.91029330540790121</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8531398667541279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.68136067178642534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54435039370078731</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45074016702438852</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42109572246641286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38600920546856926</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33579595835126291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29787547678329246</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26833585151416478</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22331797319943894</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20890678845392538</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20630605099097377</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19149760784674602</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18577208346228233</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10389744951408118</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D19C-4E08-8C29-BA49A8A68277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$C$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tr_RW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$C$89:$C$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0508896012427429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3084961502210608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.475835401251433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4160596332422559</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.177553670473618</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0446042420166846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79823299029207107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74920497822586696</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6037688299682753</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48388529910716166</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.43803621647575275</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.42421658002513041</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.38349300206575182</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31165231904427265</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.28806576751319413</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.26322978208897807</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.21605127476453392</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20378167319806123</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20068209013226648</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18943544942294457</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18488999471919065</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10432100025891862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D19C-4E08-8C29-BA49A8A68277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$D$88</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NonTr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$D$89:$D$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21461041818756052</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8594885067719061E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.863186906172183E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6402181655103279E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2485202573587112E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3900516840554961E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0811131054956486E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3012289702006158E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9706557222356931E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6664510373286101E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4602950561545926E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2801915761396681E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1022854254975644E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9653952364515016E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8966598689732701E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8249094471153512E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7166714179996647E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6445989052677923E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.535164566483583E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4656701149455161E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4217680536367907E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3771470263302351E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D19C-4E08-8C29-BA49A8A68277}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="571410624"/>
+        <c:axId val="571414232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="571410624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571414232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="571414232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="571410624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -7977,7 +10695,167 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13360,36 +16238,34 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -13397,37 +16273,44 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -13446,14 +16329,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -13542,6 +16417,505 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
@@ -13857,6 +17231,1494 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -17612,7 +22474,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>357717</xdr:colOff>
+      <xdr:colOff>1260572</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
@@ -17648,7 +22510,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>1290205</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>179917</xdr:rowOff>
     </xdr:to>
@@ -17683,8 +22545,8 @@
       <xdr:rowOff>147109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>64827</xdr:colOff>
       <xdr:row>76</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -17713,16 +22575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>814916</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>563487</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>116417</xdr:rowOff>
+      <xdr:rowOff>47144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>486833</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>97175</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:rowOff>68310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17749,16 +22611,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>878415</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>632114</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>178856</xdr:rowOff>
+      <xdr:rowOff>109583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>518582</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>128923</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>148165</xdr:rowOff>
+      <xdr:rowOff>78892</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17785,16 +22647,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>899582</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>658411</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>67252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118341</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:rowOff>78894</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18043,6 +22905,155 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733FA6B9-FECD-4830-99E8-ABCDDC9218BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49B0D8F-3D51-483D-93DB-7B7A58C489DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF1F6E3-0FD4-47B3-9D4E-B06A6A6AE61B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13603D9A-0453-4643-93A5-5F762929976C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -18342,8 +23353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18386,7 +23397,7 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="1">
@@ -18407,7 +23418,7 @@
         <f>C5*E5</f>
         <v>412.02969999999999</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <f>412.0297/H5</f>
         <v>1</v>
       </c>
@@ -18416,7 +23427,7 @@
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="6">
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -18437,7 +23448,7 @@
         <f t="shared" ref="H6:H27" si="2">C6*E6</f>
         <v>338.49939999999998</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="8">
         <f t="shared" ref="I6:I27" si="3">412.0297/H6</f>
         <v>1.2172243141346779</v>
       </c>
@@ -18446,7 +23457,7 @@
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="6">
         <v>4</v>
       </c>
       <c r="D7" s="1">
@@ -18467,7 +23478,7 @@
         <f t="shared" si="2"/>
         <v>281.10320000000002</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="8">
         <f t="shared" si="3"/>
         <v>1.4657595502292395</v>
       </c>
@@ -18476,7 +23487,7 @@
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <v>8</v>
       </c>
       <c r="D8" s="1">
@@ -18497,7 +23508,7 @@
         <f t="shared" si="2"/>
         <v>291.61200000000002</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="8">
         <f t="shared" si="3"/>
         <v>1.4129380821091038</v>
       </c>
@@ -18506,7 +23517,7 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="6">
         <v>10</v>
       </c>
       <c r="D9" s="1">
@@ -18527,7 +23538,7 @@
         <f t="shared" si="2"/>
         <v>352.75300000000004</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="8">
         <f t="shared" si="3"/>
         <v>1.1680402434564694</v>
       </c>
@@ -18536,7 +23547,7 @@
       <c r="B10" s="1">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="6">
         <v>16</v>
       </c>
       <c r="D10" s="1">
@@ -18557,7 +23568,7 @@
         <f t="shared" si="2"/>
         <v>352.61439999999999</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <f t="shared" si="3"/>
         <v>1.1684993579388703</v>
       </c>
@@ -18566,7 +23577,7 @@
       <c r="B11" s="1">
         <v>7</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="6">
         <v>20</v>
       </c>
       <c r="D11" s="1">
@@ -18587,7 +23598,7 @@
         <f t="shared" si="2"/>
         <v>374.23400000000004</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="8">
         <f t="shared" si="3"/>
         <v>1.1009948321103906</v>
       </c>
@@ -18596,7 +23607,7 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="6">
         <v>30</v>
       </c>
       <c r="D12" s="1">
@@ -18617,7 +23628,7 @@
         <f t="shared" si="2"/>
         <v>452.63400000000001</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="8">
         <f t="shared" si="3"/>
         <v>0.91029330540790121</v>
       </c>
@@ -18626,7 +23637,7 @@
       <c r="B13" s="1">
         <v>9</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="6">
         <v>32</v>
       </c>
       <c r="D13" s="1">
@@ -18647,7 +23658,7 @@
         <f t="shared" si="2"/>
         <v>482.95679999999999</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="8">
         <f t="shared" si="3"/>
         <v>0.8531398667541279</v>
       </c>
@@ -18656,7 +23667,7 @@
       <c r="B14" s="1">
         <v>10</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="6">
         <v>40</v>
       </c>
       <c r="D14" s="1">
@@ -18677,7 +23688,7 @@
         <f t="shared" si="2"/>
         <v>604.71600000000001</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="8">
         <f t="shared" si="3"/>
         <v>0.68136067178642534</v>
       </c>
@@ -18686,7 +23697,7 @@
       <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="6">
         <v>50</v>
       </c>
       <c r="D15" s="1">
@@ -18707,7 +23718,7 @@
         <f t="shared" si="2"/>
         <v>756.92000000000007</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="8">
         <f t="shared" si="3"/>
         <v>0.54435039370078731</v>
       </c>
@@ -18716,7 +23727,7 @@
       <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="6">
         <v>60</v>
       </c>
       <c r="D16" s="1">
@@ -18737,7 +23748,7 @@
         <f t="shared" si="2"/>
         <v>914.11800000000005</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="8">
         <f t="shared" si="3"/>
         <v>0.45074016702438852</v>
       </c>
@@ -18746,7 +23757,7 @@
       <c r="B17" s="1">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="6">
         <v>64</v>
       </c>
       <c r="D17" s="1">
@@ -18767,7 +23778,7 @@
         <f t="shared" si="2"/>
         <v>978.47040000000004</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="8">
         <f t="shared" si="3"/>
         <v>0.42109572246641286</v>
       </c>
@@ -18776,7 +23787,7 @@
       <c r="B18" s="1">
         <v>14</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="6">
         <v>70</v>
       </c>
       <c r="D18" s="1">
@@ -18797,7 +23808,7 @@
         <f t="shared" si="2"/>
         <v>1067.4089999999999</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="8">
         <f t="shared" si="3"/>
         <v>0.38600920546856926</v>
       </c>
@@ -18806,7 +23817,7 @@
       <c r="B19" s="1">
         <v>15</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="6">
         <v>80</v>
       </c>
       <c r="D19" s="1">
@@ -18827,7 +23838,7 @@
         <f t="shared" si="2"/>
         <v>1227.0239999999999</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="8">
         <f t="shared" si="3"/>
         <v>0.33579595835126291</v>
       </c>
@@ -18836,7 +23847,7 @@
       <c r="B20" s="1">
         <v>16</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="6">
         <v>90</v>
       </c>
       <c r="D20" s="1">
@@ -18857,7 +23868,7 @@
         <f t="shared" si="2"/>
         <v>1383.2279999999998</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="8">
         <f t="shared" si="3"/>
         <v>0.29787547678329246</v>
       </c>
@@ -18866,7 +23877,7 @@
       <c r="B21" s="1">
         <v>17</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="6">
         <v>100</v>
       </c>
       <c r="D21" s="1">
@@ -18887,7 +23898,7 @@
         <f t="shared" si="2"/>
         <v>1535.5</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="8">
         <f t="shared" si="3"/>
         <v>0.26833585151416478</v>
       </c>
@@ -18896,7 +23907,7 @@
       <c r="B22" s="1">
         <v>18</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="6">
         <v>120</v>
       </c>
       <c r="D22" s="1">
@@ -18917,7 +23928,7 @@
         <f t="shared" si="2"/>
         <v>1845.0359999999998</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="8">
         <f t="shared" si="3"/>
         <v>0.22331797319943894</v>
       </c>
@@ -18926,7 +23937,7 @@
       <c r="B23" s="1">
         <v>19</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="6">
         <v>128</v>
       </c>
       <c r="D23" s="1">
@@ -18947,7 +23958,7 @@
         <f t="shared" si="2"/>
         <v>1972.3136</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="8">
         <f t="shared" si="3"/>
         <v>0.20890678845392538</v>
       </c>
@@ -18956,7 +23967,7 @@
       <c r="B24" s="1">
         <v>20</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="6">
         <v>130</v>
       </c>
       <c r="D24" s="1">
@@ -18977,7 +23988,7 @@
         <f t="shared" si="2"/>
         <v>1997.1769999999999</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="8">
         <f t="shared" si="3"/>
         <v>0.20630605099097377</v>
       </c>
@@ -18986,7 +23997,7 @@
       <c r="B25" s="1">
         <v>21</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="6">
         <v>140</v>
       </c>
       <c r="D25" s="1">
@@ -19007,7 +24018,7 @@
         <f t="shared" si="2"/>
         <v>2151.6179999999999</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="8">
         <f t="shared" si="3"/>
         <v>0.19149760784674602</v>
       </c>
@@ -19016,7 +24027,7 @@
       <c r="B26" s="1">
         <v>22</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="6">
         <v>144</v>
       </c>
       <c r="D26" s="1">
@@ -19037,7 +24048,7 @@
         <f t="shared" si="2"/>
         <v>2217.9312</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="8">
         <f t="shared" si="3"/>
         <v>0.18577208346228233</v>
       </c>
@@ -19046,28 +24057,28 @@
       <c r="B27" s="1">
         <v>23</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="9">
         <v>255</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="10">
         <v>6432.18</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="11">
         <v>15.5519</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="10">
         <f t="shared" si="0"/>
         <v>100032.620142</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="10">
         <f t="shared" si="1"/>
         <v>26.493849626090704</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="10">
         <f t="shared" si="2"/>
         <v>3965.7345</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="12">
         <f t="shared" si="3"/>
         <v>0.10389744951408118</v>
       </c>
@@ -19083,8 +24094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20558,4 +25569,1502 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E111"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="M78" sqref="M78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
+        <f>'Transactional_read-only'!F5</f>
+        <v>99999.608189999999</v>
+      </c>
+      <c r="C7" s="14">
+        <f>'Transactional_read-write'!F5</f>
+        <v>100001.04828300001</v>
+      </c>
+      <c r="D7" s="15">
+        <f>'NoTransactional_read-only'!F5</f>
+        <v>99999.994458000001</v>
+      </c>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14">
+        <f>'Transactional_read-only'!F6</f>
+        <v>99999.492748000004</v>
+      </c>
+      <c r="C8" s="14">
+        <f>'Transactional_read-write'!F6</f>
+        <v>100001.441124</v>
+      </c>
+      <c r="D8" s="15">
+        <f>'NoTransactional_read-only'!F6</f>
+        <v>100010.60425800001</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="14">
+        <f>'Transactional_read-only'!F7</f>
+        <v>100001.05788400001</v>
+      </c>
+      <c r="C9" s="14">
+        <f>'Transactional_read-write'!F7</f>
+        <v>100019.608545</v>
+      </c>
+      <c r="D9" s="15">
+        <f>'NoTransactional_read-only'!F7</f>
+        <v>100075.977957</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="14">
+        <f>'Transactional_read-only'!F8</f>
+        <v>100003.96122000001</v>
+      </c>
+      <c r="C10" s="14">
+        <f>'Transactional_read-write'!F8</f>
+        <v>100034.890188</v>
+      </c>
+      <c r="D10" s="15">
+        <f>'NoTransactional_read-only'!F8</f>
+        <v>100169.60436</v>
+      </c>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" s="14">
+        <f>'Transactional_read-only'!F9</f>
+        <v>100009.00303000001</v>
+      </c>
+      <c r="C11" s="14">
+        <f>'Transactional_read-write'!F9</f>
+        <v>100039.11359399998</v>
+      </c>
+      <c r="D11" s="15">
+        <f>'NoTransactional_read-only'!F9</f>
+        <v>100583.95008</v>
+      </c>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14">
+        <f>'Transactional_read-only'!F10</f>
+        <v>100380.06355199999</v>
+      </c>
+      <c r="C12" s="14">
+        <f>'Transactional_read-write'!F10</f>
+        <v>100087.958432</v>
+      </c>
+      <c r="D12" s="15">
+        <f>'NoTransactional_read-only'!F10</f>
+        <v>101708.840815</v>
+      </c>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" s="14">
+        <f>'Transactional_read-only'!F11</f>
+        <v>100416.899401</v>
+      </c>
+      <c r="C13" s="14">
+        <f>'Transactional_read-write'!F11</f>
+        <v>100115.11117999999</v>
+      </c>
+      <c r="D13" s="15">
+        <f>'NoTransactional_read-only'!F11</f>
+        <v>105439.041648</v>
+      </c>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" s="14">
+        <f>'Transactional_read-only'!F12</f>
+        <v>100198.07979999999</v>
+      </c>
+      <c r="C14" s="14">
+        <f>'Transactional_read-write'!F12</f>
+        <v>100082.00991000001</v>
+      </c>
+      <c r="D14" s="15">
+        <f>'NoTransactional_read-only'!F12</f>
+        <v>104009.33134600001</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" s="14">
+        <f>'Transactional_read-only'!F13</f>
+        <v>100146.978516</v>
+      </c>
+      <c r="C15" s="14">
+        <f>'Transactional_read-write'!F13</f>
+        <v>100074.08149200001</v>
+      </c>
+      <c r="D15" s="15">
+        <f>'NoTransactional_read-only'!F13</f>
+        <v>103579.30165400001</v>
+      </c>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" s="14">
+        <f>'Transactional_read-only'!F14</f>
+        <v>100067.798964</v>
+      </c>
+      <c r="C16" s="14">
+        <f>'Transactional_read-write'!F14</f>
+        <v>100043.89631500001</v>
+      </c>
+      <c r="D16" s="15">
+        <f>'NoTransactional_read-only'!F14</f>
+        <v>103059.1969</v>
+      </c>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="14">
+        <f>'Transactional_read-only'!F15</f>
+        <v>100036.212424</v>
+      </c>
+      <c r="C17" s="14">
+        <f>'Transactional_read-write'!F15</f>
+        <v>100043.804752</v>
+      </c>
+      <c r="D17" s="15">
+        <f>'NoTransactional_read-only'!F15</f>
+        <v>103971.913614</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" s="14">
+        <f>'Transactional_read-only'!F16</f>
+        <v>100040.15980200001</v>
+      </c>
+      <c r="C18" s="14">
+        <f>'Transactional_read-write'!F16</f>
+        <v>100051.88645999999</v>
+      </c>
+      <c r="D18" s="15">
+        <f>'NoTransactional_read-only'!F16</f>
+        <v>103125.236896</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14">
+        <f>'Transactional_read-only'!F17</f>
+        <v>100022.76066600002</v>
+      </c>
+      <c r="C19" s="14">
+        <f>'Transactional_read-write'!F17</f>
+        <v>100054.727264</v>
+      </c>
+      <c r="D19" s="15">
+        <f>'NoTransactional_read-only'!F17</f>
+        <v>103567.203068</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>14</v>
+      </c>
+      <c r="B20" s="14">
+        <f>'Transactional_read-only'!F18</f>
+        <v>100028.87972099999</v>
+      </c>
+      <c r="C20" s="14">
+        <f>'Transactional_read-write'!F18</f>
+        <v>100057.864632</v>
+      </c>
+      <c r="D20" s="15">
+        <f>'NoTransactional_read-only'!F18</f>
+        <v>104257.204251</v>
+      </c>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" s="14">
+        <f>'Transactional_read-only'!F19</f>
+        <v>100034.205246</v>
+      </c>
+      <c r="C21" s="14">
+        <f>'Transactional_read-write'!F19</f>
+        <v>100042.75137600001</v>
+      </c>
+      <c r="D21" s="15">
+        <f>'NoTransactional_read-only'!F19</f>
+        <v>103763.58719999999</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>16</v>
+      </c>
+      <c r="B22" s="14">
+        <f>'Transactional_read-only'!F20</f>
+        <v>100030.284508</v>
+      </c>
+      <c r="C22" s="14">
+        <f>'Transactional_read-write'!F20</f>
+        <v>100053.79586999999</v>
+      </c>
+      <c r="D22" s="15">
+        <f>'NoTransactional_read-only'!F20</f>
+        <v>103409.89788600001</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="14">
+        <f>'Transactional_read-only'!F21</f>
+        <v>100041.04955</v>
+      </c>
+      <c r="C23" s="14">
+        <f>'Transactional_read-write'!F21</f>
+        <v>100055.30773199999</v>
+      </c>
+      <c r="D23" s="15">
+        <f>'NoTransactional_read-only'!F21</f>
+        <v>103398.242229</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="14">
+        <f>'Transactional_read-only'!F22</f>
+        <v>100055.22600899999</v>
+      </c>
+      <c r="C24" s="14">
+        <f>'Transactional_read-write'!F22</f>
+        <v>100045.13414400001</v>
+      </c>
+      <c r="D24" s="15">
+        <f>'NoTransactional_read-only'!F22</f>
+        <v>103698.400754</v>
+      </c>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>19</v>
+      </c>
+      <c r="B25" s="14">
+        <f>'Transactional_read-only'!F23</f>
+        <v>100051.77084</v>
+      </c>
+      <c r="C25" s="14">
+        <f>'Transactional_read-write'!F23</f>
+        <v>100045.89783999999</v>
+      </c>
+      <c r="D25" s="15">
+        <f>'NoTransactional_read-only'!F23</f>
+        <v>103898.92032899999</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26" s="14">
+        <f>'Transactional_read-only'!F24</f>
+        <v>100041.822139</v>
+      </c>
+      <c r="C26" s="14">
+        <f>'Transactional_read-write'!F24</f>
+        <v>100047.136682</v>
+      </c>
+      <c r="D26" s="15">
+        <f>'NoTransactional_read-only'!F24</f>
+        <v>103131.82915800001</v>
+      </c>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21</v>
+      </c>
+      <c r="B27" s="14">
+        <f>'Transactional_read-only'!F25</f>
+        <v>100035.021987</v>
+      </c>
+      <c r="C27" s="14">
+        <f>'Transactional_read-write'!F25</f>
+        <v>100054.743176</v>
+      </c>
+      <c r="D27" s="15">
+        <f>'NoTransactional_read-only'!F25</f>
+        <v>103734.41639400001</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="14">
+        <f>'Transactional_read-only'!F26</f>
+        <v>100027.002867</v>
+      </c>
+      <c r="C28" s="14">
+        <f>'Transactional_read-write'!F26</f>
+        <v>100050.10683599999</v>
+      </c>
+      <c r="D28" s="15">
+        <f>'NoTransactional_read-only'!F26</f>
+        <v>103762.42267499999</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>23</v>
+      </c>
+      <c r="B29" s="14">
+        <f>'Transactional_read-only'!F27</f>
+        <v>100032.620142</v>
+      </c>
+      <c r="C29" s="14">
+        <f>'Transactional_read-write'!F27</f>
+        <v>100051.891617</v>
+      </c>
+      <c r="D29" s="15">
+        <f>'NoTransactional_read-only'!F27</f>
+        <v>103204.92670400001</v>
+      </c>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="14">
+        <f>'Transactional_read-only'!G5</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="14">
+        <f>'Transactional_read-write'!G5</f>
+        <v>1</v>
+      </c>
+      <c r="D34" s="14">
+        <f>'NoTransactional_read-only'!G5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="14">
+        <f>'Transactional_read-only'!G6</f>
+        <v>2.4344486282693558</v>
+      </c>
+      <c r="C35" s="14">
+        <f>'Transactional_read-write'!G6</f>
+        <v>2.1017792024854858</v>
+      </c>
+      <c r="D35" s="14">
+        <f>'NoTransactional_read-only'!G6</f>
+        <v>0.42922083637512104</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="14">
+        <f>'Transactional_read-only'!G7</f>
+        <v>5.8630382009169582</v>
+      </c>
+      <c r="C36" s="14">
+        <f>'Transactional_read-write'!G7</f>
+        <v>5.2339846008842432</v>
+      </c>
+      <c r="D36" s="14">
+        <f>'NoTransactional_read-only'!G7</f>
+        <v>0.20578465520315717</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="14">
+        <f>'Transactional_read-only'!G8</f>
+        <v>11.30350465687283</v>
+      </c>
+      <c r="C37" s="14">
+        <f>'Transactional_read-write'!G8</f>
+        <v>11.806683210011464</v>
+      </c>
+      <c r="D37" s="14">
+        <f>'NoTransactional_read-only'!G8</f>
+        <v>0.11452747624688732</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="14">
+        <f>'Transactional_read-only'!G9</f>
+        <v>11.680402434564694</v>
+      </c>
+      <c r="C38" s="14">
+        <f>'Transactional_read-write'!G9</f>
+        <v>14.160596332422559</v>
+      </c>
+      <c r="D38" s="14">
+        <f>'NoTransactional_read-only'!G9</f>
+        <v>8.2010908275516409E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="14">
+        <f>'Transactional_read-only'!G10</f>
+        <v>18.695989727021924</v>
+      </c>
+      <c r="C39" s="14">
+        <f>'Transactional_read-write'!G10</f>
+        <v>18.840858727577888</v>
+      </c>
+      <c r="D39" s="14">
+        <f>'NoTransactional_read-only'!G10</f>
+        <v>4.3491121544152272E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="14">
+        <f>'Transactional_read-only'!G11</f>
+        <v>22.019896642207815</v>
+      </c>
+      <c r="C40" s="14">
+        <f>'Transactional_read-write'!G11</f>
+        <v>20.892084840333691</v>
+      </c>
+      <c r="D40" s="14">
+        <f>'NoTransactional_read-only'!G11</f>
+        <v>3.7730361788388476E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="14">
+        <f>'Transactional_read-only'!G12</f>
+        <v>27.30879916223704</v>
+      </c>
+      <c r="C41" s="14">
+        <f>'Transactional_read-write'!G12</f>
+        <v>23.946989708762136</v>
+      </c>
+      <c r="D41" s="14">
+        <f>'NoTransactional_read-only'!G12</f>
+        <v>3.2648904843965189E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="14">
+        <f>'Transactional_read-only'!G13</f>
+        <v>27.300475736132093</v>
+      </c>
+      <c r="C42" s="14">
+        <f>'Transactional_read-write'!G13</f>
+        <v>23.974559303227743</v>
+      </c>
+      <c r="D42" s="14">
+        <f>'NoTransactional_read-only'!G13</f>
+        <v>2.9711060731805541E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="14">
+        <f>'Transactional_read-only'!G14</f>
+        <v>27.254426871457014</v>
+      </c>
+      <c r="C43" s="14">
+        <f>'Transactional_read-write'!G14</f>
+        <v>24.150753198731014</v>
+      </c>
+      <c r="D43" s="14">
+        <f>'NoTransactional_read-only'!G14</f>
+        <v>2.9706557222356936E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="14">
+        <f>'Transactional_read-only'!G15</f>
+        <v>27.217519685039367</v>
+      </c>
+      <c r="C44" s="14">
+        <f>'Transactional_read-write'!G15</f>
+        <v>24.194264955358083</v>
+      </c>
+      <c r="D44" s="14">
+        <f>'NoTransactional_read-only'!G15</f>
+        <v>2.9330961410614712E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="14">
+        <f>'Transactional_read-only'!G16</f>
+        <v>27.04441002146331</v>
+      </c>
+      <c r="C45" s="14">
+        <f>'Transactional_read-write'!G16</f>
+        <v>26.282172988545167</v>
+      </c>
+      <c r="D45" s="14">
+        <f>'NoTransactional_read-only'!G16</f>
+        <v>2.9523540673855115E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
+        <f>'Transactional_read-only'!G17</f>
+        <v>26.950126237850423</v>
+      </c>
+      <c r="C46" s="14">
+        <f>'Transactional_read-write'!G17</f>
+        <v>27.149861121608346</v>
+      </c>
+      <c r="D46" s="14">
+        <f>'NoTransactional_read-only'!G17</f>
+        <v>2.9642490489815689E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="14">
+        <f>'Transactional_read-only'!G18</f>
+        <v>27.020644382799844</v>
+      </c>
+      <c r="C47" s="14">
+        <f>'Transactional_read-write'!G18</f>
+        <v>26.844510144602626</v>
+      </c>
+      <c r="D47" s="14">
+        <f>'NoTransactional_read-only'!G18</f>
+        <v>2.9431995956965901E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="14">
+        <f>'Transactional_read-only'!G19</f>
+        <v>26.863676668101032</v>
+      </c>
+      <c r="C48" s="14">
+        <f>'Transactional_read-write'!G19</f>
+        <v>24.932185523541811</v>
+      </c>
+      <c r="D48" s="14">
+        <f>'NoTransactional_read-only'!G19</f>
+        <v>2.9480928546772527E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="14">
+        <f>'Transactional_read-only'!G20</f>
+        <v>26.808792910496319</v>
+      </c>
+      <c r="C49" s="14">
+        <f>'Transactional_read-write'!G20</f>
+        <v>25.925919076187469</v>
+      </c>
+      <c r="D49" s="14">
+        <f>'NoTransactional_read-only'!G20</f>
+        <v>3.0346557903572321E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="14">
+        <f>'Transactional_read-only'!G21</f>
+        <v>26.833585151416475</v>
+      </c>
+      <c r="C50" s="14">
+        <f>'Transactional_read-write'!G21</f>
+        <v>26.322978208897808</v>
+      </c>
+      <c r="D50" s="14">
+        <f>'NoTransactional_read-only'!G21</f>
+        <v>3.1023460600960971E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="14">
+        <f>'Transactional_read-only'!G22</f>
+        <v>26.798156783932672</v>
+      </c>
+      <c r="C51" s="14">
+        <f>'Transactional_read-write'!G22</f>
+        <v>25.926152971744074</v>
+      </c>
+      <c r="D51" s="14">
+        <f>'NoTransactional_read-only'!G22</f>
+        <v>3.0900085523993967E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="14">
+        <f>'Transactional_read-only'!G23</f>
+        <v>26.740068922102449</v>
+      </c>
+      <c r="C52" s="14">
+        <f>'Transactional_read-write'!G23</f>
+        <v>26.084054169351838</v>
+      </c>
+      <c r="D52" s="14">
+        <f>'NoTransactional_read-only'!G23</f>
+        <v>3.1247379200088053E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="14">
+        <f>'Transactional_read-only'!G24</f>
+        <v>26.819786628826588</v>
+      </c>
+      <c r="C53" s="14">
+        <f>'Transactional_read-write'!G24</f>
+        <v>26.088671717194643</v>
+      </c>
+      <c r="D53" s="14">
+        <f>'NoTransactional_read-only'!G24</f>
+        <v>3.0703291329671659E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="14">
+        <f>'Transactional_read-only'!G25</f>
+        <v>26.809665098544443</v>
+      </c>
+      <c r="C54" s="14">
+        <f>'Transactional_read-write'!G25</f>
+        <v>26.520962919212241</v>
+      </c>
+      <c r="D54" s="14">
+        <f>'NoTransactional_read-only'!G25</f>
+        <v>3.0779072413855836E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="14">
+        <f>'Transactional_read-only'!G26</f>
+        <v>26.751180018568654</v>
+      </c>
+      <c r="C55" s="14">
+        <f>'Transactional_read-write'!G26</f>
+        <v>26.624159239563458</v>
+      </c>
+      <c r="D55" s="14">
+        <f>'NoTransactional_read-only'!G26</f>
+        <v>3.1278897180009396E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="14">
+        <f>'Transactional_read-only'!G27</f>
+        <v>26.493849626090704</v>
+      </c>
+      <c r="C56" s="14">
+        <f>'Transactional_read-write'!G27</f>
+        <v>26.601855066024246</v>
+      </c>
+      <c r="D56" s="14">
+        <f>'NoTransactional_read-only'!G27</f>
+        <v>3.1674381605595409E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" s="14">
+        <f>'Transactional_read-only'!H5</f>
+        <v>412.02969999999999</v>
+      </c>
+      <c r="C62" s="14">
+        <f>'Transactional_read-write'!H5</f>
+        <v>574.75170000000003</v>
+      </c>
+      <c r="D62" s="14">
+        <f>'NoTransactional_read-only'!H5</f>
+        <v>4974.0600000000004</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" s="14">
+        <f>'Transactional_read-only'!H6</f>
+        <v>338.49939999999998</v>
+      </c>
+      <c r="C63" s="14">
+        <f>'Transactional_read-write'!H6</f>
+        <v>546.91920000000005</v>
+      </c>
+      <c r="D63" s="14">
+        <f>'NoTransactional_read-only'!H6</f>
+        <v>23177.16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="14">
+        <f>'Transactional_read-only'!H7</f>
+        <v>281.10320000000002</v>
+      </c>
+      <c r="C64" s="14">
+        <f>'Transactional_read-write'!H7</f>
+        <v>439.24599999999998</v>
+      </c>
+      <c r="D64" s="14">
+        <f>'NoTransactional_read-only'!H7</f>
+        <v>72513.569999999992</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="14">
+        <f>'Transactional_read-only'!H8</f>
+        <v>291.61200000000002</v>
+      </c>
+      <c r="C65" s="14">
+        <f>'Transactional_read-write'!H8</f>
+        <v>389.44159999999999</v>
+      </c>
+      <c r="D65" s="14">
+        <f>'NoTransactional_read-only'!H8</f>
+        <v>173724.6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" s="14">
+        <f>'Transactional_read-only'!H9</f>
+        <v>352.75300000000004</v>
+      </c>
+      <c r="C66" s="14">
+        <f>'Transactional_read-write'!H9</f>
+        <v>405.88099999999997</v>
+      </c>
+      <c r="D66" s="14">
+        <f>'NoTransactional_read-only'!H9</f>
+        <v>303256</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" s="14">
+        <f>'Transactional_read-only'!H10</f>
+        <v>352.61439999999999</v>
+      </c>
+      <c r="C67" s="14">
+        <f>'Transactional_read-write'!H10</f>
+        <v>488.08960000000002</v>
+      </c>
+      <c r="D67" s="14">
+        <f>'NoTransactional_read-only'!H10</f>
+        <v>686217.3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="14">
+        <f>'Transactional_read-only'!H11</f>
+        <v>374.23400000000004</v>
+      </c>
+      <c r="C68" s="14">
+        <f>'Transactional_read-write'!H11</f>
+        <v>550.21</v>
+      </c>
+      <c r="D68" s="14">
+        <f>'NoTransactional_read-only'!H11</f>
+        <v>922822.32000000007</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="14">
+        <f>'Transactional_read-only'!H12</f>
+        <v>452.63400000000001</v>
+      </c>
+      <c r="C69" s="14">
+        <f>'Transactional_read-write'!H12</f>
+        <v>720.03000000000009</v>
+      </c>
+      <c r="D69" s="14">
+        <f>'NoTransactional_read-only'!H12</f>
+        <v>1218799.8400000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="14">
+        <f>'Transactional_read-only'!H13</f>
+        <v>482.95679999999999</v>
+      </c>
+      <c r="C70" s="14">
+        <f>'Transactional_read-write'!H13</f>
+        <v>767.14880000000005</v>
+      </c>
+      <c r="D70" s="14">
+        <f>'NoTransactional_read-only'!H13</f>
+        <v>1506729.78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="14">
+        <f>'Transactional_read-only'!H14</f>
+        <v>604.71600000000001</v>
+      </c>
+      <c r="C71" s="14">
+        <f>'Transactional_read-write'!H14</f>
+        <v>951.94</v>
+      </c>
+      <c r="D71" s="14">
+        <f>'NoTransactional_read-only'!H14</f>
+        <v>1674398</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="14">
+        <f>'Transactional_read-only'!H15</f>
+        <v>756.92000000000007</v>
+      </c>
+      <c r="C72" s="14">
+        <f>'Transactional_read-write'!H15</f>
+        <v>1187.7850000000001</v>
+      </c>
+      <c r="D72" s="14">
+        <f>'NoTransactional_read-only'!H15</f>
+        <v>1865423.34</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="14">
+        <f>'Transactional_read-only'!H16</f>
+        <v>914.11800000000005</v>
+      </c>
+      <c r="C73" s="14">
+        <f>'Transactional_read-write'!H16</f>
+        <v>1312.1100000000001</v>
+      </c>
+      <c r="D73" s="14">
+        <f>'NoTransactional_read-only'!H16</f>
+        <v>2021733.12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="14">
+        <f>'Transactional_read-only'!H17</f>
+        <v>978.47040000000004</v>
+      </c>
+      <c r="C74" s="14">
+        <f>'Transactional_read-write'!H17</f>
+        <v>1354.8543999999999</v>
+      </c>
+      <c r="D74" s="14">
+        <f>'NoTransactional_read-only'!H17</f>
+        <v>2181421.9700000002</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="14">
+        <f>'Transactional_read-only'!H18</f>
+        <v>1067.4089999999999</v>
+      </c>
+      <c r="C75" s="14">
+        <f>'Transactional_read-write'!H18</f>
+        <v>1498.7279999999998</v>
+      </c>
+      <c r="D75" s="14">
+        <f>'NoTransactional_read-only'!H18</f>
+        <v>2366025.06</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="14">
+        <f>'Transactional_read-only'!H19</f>
+        <v>1227.0239999999999</v>
+      </c>
+      <c r="C76" s="14">
+        <f>'Transactional_read-write'!H19</f>
+        <v>1844.2080000000001</v>
+      </c>
+      <c r="D76" s="14">
+        <f>'NoTransactional_read-only'!H19</f>
+        <v>2530819.2000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="14">
+        <f>'Transactional_read-only'!H20</f>
+        <v>1383.2279999999998</v>
+      </c>
+      <c r="C77" s="14">
+        <f>'Transactional_read-write'!H20</f>
+        <v>1995.21</v>
+      </c>
+      <c r="D77" s="14">
+        <f>'NoTransactional_read-only'!H20</f>
+        <v>2622536.64</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="14">
+        <f>'Transactional_read-only'!H21</f>
+        <v>1535.5</v>
+      </c>
+      <c r="C78" s="14">
+        <f>'Transactional_read-write'!H21</f>
+        <v>2183.46</v>
+      </c>
+      <c r="D78" s="14">
+        <f>'NoTransactional_read-only'!H21</f>
+        <v>2725647.57</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="14">
+        <f>'Transactional_read-only'!H22</f>
+        <v>1845.0359999999998</v>
+      </c>
+      <c r="C79" s="14">
+        <f>'Transactional_read-write'!H22</f>
+        <v>2660.2560000000003</v>
+      </c>
+      <c r="D79" s="14">
+        <f>'NoTransactional_read-only'!H22</f>
+        <v>2897502.66</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="14">
+        <f>'Transactional_read-only'!H23</f>
+        <v>1972.3136</v>
+      </c>
+      <c r="C80" s="14">
+        <f>'Transactional_read-write'!H23</f>
+        <v>2820.4288000000001</v>
+      </c>
+      <c r="D80" s="14">
+        <f>'NoTransactional_read-only'!H23</f>
+        <v>3024482.13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="14">
+        <f>'Transactional_read-only'!H24</f>
+        <v>1997.1769999999999</v>
+      </c>
+      <c r="C81" s="14">
+        <f>'Transactional_read-write'!H24</f>
+        <v>2863.991</v>
+      </c>
+      <c r="D81" s="14">
+        <f>'NoTransactional_read-only'!H24</f>
+        <v>3240082.6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="14">
+        <f>'Transactional_read-only'!H25</f>
+        <v>2151.6179999999999</v>
+      </c>
+      <c r="C82" s="14">
+        <f>'Transactional_read-write'!H25</f>
+        <v>3034.0240000000003</v>
+      </c>
+      <c r="D82" s="14">
+        <f>'NoTransactional_read-only'!H25</f>
+        <v>3393710.46</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="14">
+        <f>'Transactional_read-only'!H26</f>
+        <v>2217.9312</v>
+      </c>
+      <c r="C83" s="14">
+        <f>'Transactional_read-write'!H26</f>
+        <v>3108.6143999999999</v>
+      </c>
+      <c r="D83" s="14">
+        <f>'NoTransactional_read-only'!H26</f>
+        <v>3498503.1399999997</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="14">
+        <f>'Transactional_read-only'!H27</f>
+        <v>3965.7345</v>
+      </c>
+      <c r="C84" s="14">
+        <f>'Transactional_read-write'!H27</f>
+        <v>5509.4534999999996</v>
+      </c>
+      <c r="D84" s="14">
+        <f>'NoTransactional_read-only'!H27</f>
+        <v>3611858.3600000003</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="14">
+        <f>'Transactional_read-only'!I5</f>
+        <v>1</v>
+      </c>
+      <c r="C89" s="14">
+        <f>'Transactional_read-write'!I5</f>
+        <v>1</v>
+      </c>
+      <c r="D89" s="14">
+        <f>'NoTransactional_read-only'!I5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="14">
+        <f>'Transactional_read-only'!I6</f>
+        <v>1.2172243141346779</v>
+      </c>
+      <c r="C90" s="14">
+        <f>'Transactional_read-write'!I6</f>
+        <v>1.0508896012427429</v>
+      </c>
+      <c r="D90" s="14">
+        <f>'NoTransactional_read-only'!I6</f>
+        <v>0.21461041818756052</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="14">
+        <f>'Transactional_read-only'!I7</f>
+        <v>1.4657595502292395</v>
+      </c>
+      <c r="C91" s="14">
+        <f>'Transactional_read-write'!I7</f>
+        <v>1.3084961502210608</v>
+      </c>
+      <c r="D91" s="14">
+        <f>'NoTransactional_read-only'!I7</f>
+        <v>6.8594885067719061E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="14">
+        <f>'Transactional_read-only'!I8</f>
+        <v>1.4129380821091038</v>
+      </c>
+      <c r="C92" s="14">
+        <f>'Transactional_read-write'!I8</f>
+        <v>1.475835401251433</v>
+      </c>
+      <c r="D92" s="14">
+        <f>'NoTransactional_read-only'!I8</f>
+        <v>2.863186906172183E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="14">
+        <f>'Transactional_read-only'!I9</f>
+        <v>1.1680402434564694</v>
+      </c>
+      <c r="C93" s="14">
+        <f>'Transactional_read-write'!I9</f>
+        <v>1.4160596332422559</v>
+      </c>
+      <c r="D93" s="14">
+        <f>'NoTransactional_read-only'!I9</f>
+        <v>1.6402181655103279E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="14">
+        <f>'Transactional_read-only'!I10</f>
+        <v>1.1684993579388703</v>
+      </c>
+      <c r="C94" s="14">
+        <f>'Transactional_read-write'!I10</f>
+        <v>1.177553670473618</v>
+      </c>
+      <c r="D94" s="14">
+        <f>'NoTransactional_read-only'!I10</f>
+        <v>7.2485202573587112E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="14">
+        <f>'Transactional_read-only'!I11</f>
+        <v>1.1009948321103906</v>
+      </c>
+      <c r="C95" s="14">
+        <f>'Transactional_read-write'!I11</f>
+        <v>1.0446042420166846</v>
+      </c>
+      <c r="D95" s="14">
+        <f>'NoTransactional_read-only'!I11</f>
+        <v>5.3900516840554961E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="14">
+        <f>'Transactional_read-only'!I12</f>
+        <v>0.91029330540790121</v>
+      </c>
+      <c r="C96" s="14">
+        <f>'Transactional_read-write'!I12</f>
+        <v>0.79823299029207107</v>
+      </c>
+      <c r="D96" s="14">
+        <f>'NoTransactional_read-only'!I12</f>
+        <v>4.0811131054956486E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="14">
+        <f>'Transactional_read-only'!I13</f>
+        <v>0.8531398667541279</v>
+      </c>
+      <c r="C97" s="14">
+        <f>'Transactional_read-write'!I13</f>
+        <v>0.74920497822586696</v>
+      </c>
+      <c r="D97" s="14">
+        <f>'NoTransactional_read-only'!I13</f>
+        <v>3.3012289702006158E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="14">
+        <f>'Transactional_read-only'!I14</f>
+        <v>0.68136067178642534</v>
+      </c>
+      <c r="C98" s="14">
+        <f>'Transactional_read-write'!I14</f>
+        <v>0.6037688299682753</v>
+      </c>
+      <c r="D98" s="14">
+        <f>'NoTransactional_read-only'!I14</f>
+        <v>2.9706557222356931E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="14">
+        <f>'Transactional_read-only'!I15</f>
+        <v>0.54435039370078731</v>
+      </c>
+      <c r="C99" s="14">
+        <f>'Transactional_read-write'!I15</f>
+        <v>0.48388529910716166</v>
+      </c>
+      <c r="D99" s="14">
+        <f>'NoTransactional_read-only'!I15</f>
+        <v>2.6664510373286101E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="14">
+        <f>'Transactional_read-only'!I16</f>
+        <v>0.45074016702438852</v>
+      </c>
+      <c r="C100" s="14">
+        <f>'Transactional_read-write'!I16</f>
+        <v>0.43803621647575275</v>
+      </c>
+      <c r="D100" s="14">
+        <f>'NoTransactional_read-only'!I16</f>
+        <v>2.4602950561545926E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="14">
+        <f>'Transactional_read-only'!I17</f>
+        <v>0.42109572246641286</v>
+      </c>
+      <c r="C101" s="14">
+        <f>'Transactional_read-write'!I17</f>
+        <v>0.42421658002513041</v>
+      </c>
+      <c r="D101" s="14">
+        <f>'NoTransactional_read-only'!I17</f>
+        <v>2.2801915761396681E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="14">
+        <f>'Transactional_read-only'!I18</f>
+        <v>0.38600920546856926</v>
+      </c>
+      <c r="C102" s="14">
+        <f>'Transactional_read-write'!I18</f>
+        <v>0.38349300206575182</v>
+      </c>
+      <c r="D102" s="14">
+        <f>'NoTransactional_read-only'!I18</f>
+        <v>2.1022854254975644E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="14">
+        <f>'Transactional_read-only'!I19</f>
+        <v>0.33579595835126291</v>
+      </c>
+      <c r="C103" s="14">
+        <f>'Transactional_read-write'!I19</f>
+        <v>0.31165231904427265</v>
+      </c>
+      <c r="D103" s="14">
+        <f>'NoTransactional_read-only'!I19</f>
+        <v>1.9653952364515016E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="14">
+        <f>'Transactional_read-only'!I20</f>
+        <v>0.29787547678329246</v>
+      </c>
+      <c r="C104" s="14">
+        <f>'Transactional_read-write'!I20</f>
+        <v>0.28806576751319413</v>
+      </c>
+      <c r="D104" s="14">
+        <f>'NoTransactional_read-only'!I20</f>
+        <v>1.8966598689732701E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="14">
+        <f>'Transactional_read-only'!I21</f>
+        <v>0.26833585151416478</v>
+      </c>
+      <c r="C105" s="14">
+        <f>'Transactional_read-write'!I21</f>
+        <v>0.26322978208897807</v>
+      </c>
+      <c r="D105" s="14">
+        <f>'NoTransactional_read-only'!I21</f>
+        <v>1.8249094471153512E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="14">
+        <f>'Transactional_read-only'!I22</f>
+        <v>0.22331797319943894</v>
+      </c>
+      <c r="C106" s="14">
+        <f>'Transactional_read-write'!I22</f>
+        <v>0.21605127476453392</v>
+      </c>
+      <c r="D106" s="14">
+        <f>'NoTransactional_read-only'!I22</f>
+        <v>1.7166714179996647E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="14">
+        <f>'Transactional_read-only'!I23</f>
+        <v>0.20890678845392538</v>
+      </c>
+      <c r="C107" s="14">
+        <f>'Transactional_read-write'!I23</f>
+        <v>0.20378167319806123</v>
+      </c>
+      <c r="D107" s="14">
+        <f>'NoTransactional_read-only'!I23</f>
+        <v>1.6445989052677923E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="14">
+        <f>'Transactional_read-only'!I24</f>
+        <v>0.20630605099097377</v>
+      </c>
+      <c r="C108" s="14">
+        <f>'Transactional_read-write'!I24</f>
+        <v>0.20068209013226648</v>
+      </c>
+      <c r="D108" s="14">
+        <f>'NoTransactional_read-only'!I24</f>
+        <v>1.535164566483583E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="14">
+        <f>'Transactional_read-only'!I25</f>
+        <v>0.19149760784674602</v>
+      </c>
+      <c r="C109" s="14">
+        <f>'Transactional_read-write'!I25</f>
+        <v>0.18943544942294457</v>
+      </c>
+      <c r="D109" s="14">
+        <f>'NoTransactional_read-only'!I25</f>
+        <v>1.4656701149455161E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="14">
+        <f>'Transactional_read-only'!I26</f>
+        <v>0.18577208346228233</v>
+      </c>
+      <c r="C110" s="14">
+        <f>'Transactional_read-write'!I26</f>
+        <v>0.18488999471919065</v>
+      </c>
+      <c r="D110" s="14">
+        <f>'NoTransactional_read-only'!I26</f>
+        <v>1.4217680536367907E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="14">
+        <f>'Transactional_read-only'!I27</f>
+        <v>0.10389744951408118</v>
+      </c>
+      <c r="C111" s="14">
+        <f>'Transactional_read-write'!I27</f>
+        <v>0.10432100025891862</v>
+      </c>
+      <c r="D111" s="14">
+        <f>'NoTransactional_read-only'!I27</f>
+        <v>1.3771470263302351E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B87:D87"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SING_Practica_1/Datos.xlsx
+++ b/SING_Practica_1/Datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transactional_read-only" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="11">
   <si>
     <t>Número de hilos</t>
   </si>
@@ -58,12 +58,15 @@
   <si>
     <t>NonTr_RO</t>
   </si>
+  <si>
+    <t>Comparativa dentro de la misma gráfica para cada uno de los parámetros estudiados</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +86,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +264,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6796,7 +6810,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES"/>
-              <a:t>Coste </a:t>
+              <a:t>Eficiencia </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1600" b="1" i="0" u="none" strike="noStrike" baseline="0">
@@ -24094,7 +24108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -25573,10 +25587,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+  <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="M78" sqref="M78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25591,19 +25605,39 @@
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E1" s="16"/>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E2" s="16"/>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" s="16"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
@@ -25611,7 +25645,7 @@
       <c r="D5" s="13"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -25623,10 +25657,7 @@
       </c>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="14">
         <f>'Transactional_read-only'!F5</f>
         <v>99999.608189999999</v>
@@ -25641,10 +25672,7 @@
       </c>
       <c r="E7" s="16"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="14">
         <f>'Transactional_read-only'!F6</f>
         <v>99999.492748000004</v>
@@ -25659,10 +25687,7 @@
       </c>
       <c r="E8" s="16"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="14">
         <f>'Transactional_read-only'!F7</f>
         <v>100001.05788400001</v>
@@ -25677,10 +25702,7 @@
       </c>
       <c r="E9" s="16"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4</v>
-      </c>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="14">
         <f>'Transactional_read-only'!F8</f>
         <v>100003.96122000001</v>
@@ -25695,10 +25717,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <f>'Transactional_read-only'!F9</f>
         <v>100009.00303000001</v>
@@ -25713,10 +25732,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14">
         <f>'Transactional_read-only'!F10</f>
         <v>100380.06355199999</v>
@@ -25731,10 +25747,7 @@
       </c>
       <c r="E12" s="16"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14">
         <f>'Transactional_read-only'!F11</f>
         <v>100416.899401</v>
@@ -25749,10 +25762,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>8</v>
-      </c>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="14">
         <f>'Transactional_read-only'!F12</f>
         <v>100198.07979999999</v>
@@ -25767,10 +25777,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>9</v>
-      </c>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="14">
         <f>'Transactional_read-only'!F13</f>
         <v>100146.978516</v>
@@ -25785,10 +25792,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>10</v>
-      </c>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14">
         <f>'Transactional_read-only'!F14</f>
         <v>100067.798964</v>
@@ -25803,10 +25807,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <f>'Transactional_read-only'!F15</f>
         <v>100036.212424</v>
@@ -25821,10 +25822,7 @@
       </c>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <f>'Transactional_read-only'!F16</f>
         <v>100040.15980200001</v>
@@ -25839,10 +25837,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>13</v>
-      </c>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="14">
         <f>'Transactional_read-only'!F17</f>
         <v>100022.76066600002</v>
@@ -25857,10 +25852,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>14</v>
-      </c>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="14">
         <f>'Transactional_read-only'!F18</f>
         <v>100028.87972099999</v>
@@ -25875,10 +25867,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>15</v>
-      </c>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="14">
         <f>'Transactional_read-only'!F19</f>
         <v>100034.205246</v>
@@ -25893,10 +25882,7 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>16</v>
-      </c>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="14">
         <f>'Transactional_read-only'!F20</f>
         <v>100030.284508</v>
@@ -25911,10 +25897,7 @@
       </c>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>17</v>
-      </c>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="14">
         <f>'Transactional_read-only'!F21</f>
         <v>100041.04955</v>
@@ -25929,10 +25912,7 @@
       </c>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>18</v>
-      </c>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="14">
         <f>'Transactional_read-only'!F22</f>
         <v>100055.22600899999</v>
@@ -25947,10 +25927,7 @@
       </c>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>19</v>
-      </c>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="14">
         <f>'Transactional_read-only'!F23</f>
         <v>100051.77084</v>
@@ -25965,10 +25942,7 @@
       </c>
       <c r="E25" s="16"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>20</v>
-      </c>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="14">
         <f>'Transactional_read-only'!F24</f>
         <v>100041.822139</v>
@@ -25983,10 +25957,7 @@
       </c>
       <c r="E26" s="16"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>21</v>
-      </c>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="14">
         <f>'Transactional_read-only'!F25</f>
         <v>100035.021987</v>
@@ -26001,10 +25972,7 @@
       </c>
       <c r="E27" s="16"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>22</v>
-      </c>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="14">
         <f>'Transactional_read-only'!F26</f>
         <v>100027.002867</v>
@@ -26019,10 +25987,7 @@
       </c>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>23</v>
-      </c>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <f>'Transactional_read-only'!F27</f>
         <v>100032.620142</v>
@@ -26037,7 +26002,7 @@
       </c>
       <c r="E29" s="16"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
         <v>4</v>
       </c>
@@ -27058,13 +27023,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B1:H3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B32:D32"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B87:D87"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SING_Practica_1/Datos.xlsx
+++ b/SING_Practica_1/Datos.xlsx
@@ -258,14 +258,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7328,6 +7328,535 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="571410624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Coste (comparativa</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> de transaccionales)</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tr_RO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$B$62:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>412.02969999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>338.49939999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>281.10320000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>291.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>352.75300000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>352.61439999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>374.23400000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>452.63400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>482.95679999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>604.71600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>756.92000000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>914.11800000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>978.47040000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1067.4089999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1227.0239999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1383.2279999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1535.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1845.0359999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1972.3136</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1997.1769999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2151.6179999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2217.9312</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3965.7345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BB3-452B-9D2C-C541CF35CFBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'comparativa de las 3'!$C$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tr_RW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'comparativa de las 3'!$C$62:$C$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>574.75170000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>546.91920000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>439.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389.44159999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>405.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>488.08960000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>550.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>720.03000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>767.14880000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>951.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1187.7850000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1312.1100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1354.8543999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1498.7279999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1844.2080000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995.21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2183.46</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2660.2560000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2820.4288000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2863.991</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3034.0240000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3108.6143999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5509.4534999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8BB3-452B-9D2C-C541CF35CFBA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="439988776"/>
+        <c:axId val="439985496"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="439988776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439985496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="439985496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="439988776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10909,6 +11438,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18243,6 +18812,502 @@
 </file>
 
 <file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23065,6 +24130,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E3E163-F4C4-477A-B0BE-F80050FB0302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24108,7 +25209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -25590,7 +26691,7 @@
   <dimension ref="B1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A29"/>
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25606,44 +26707,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="16"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -25655,359 +26756,359 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f>'Transactional_read-only'!F5</f>
         <v>99999.608189999999</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <f>'Transactional_read-write'!F5</f>
         <v>100001.04828300001</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f>'NoTransactional_read-only'!F5</f>
         <v>99999.994458000001</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>'Transactional_read-only'!F6</f>
         <v>99999.492748000004</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <f>'Transactional_read-write'!F6</f>
         <v>100001.441124</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>'NoTransactional_read-only'!F6</f>
         <v>100010.60425800001</v>
       </c>
-      <c r="E8" s="16"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f>'Transactional_read-only'!F7</f>
         <v>100001.05788400001</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <f>'Transactional_read-write'!F7</f>
         <v>100019.608545</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>'NoTransactional_read-only'!F7</f>
         <v>100075.977957</v>
       </c>
-      <c r="E9" s="16"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f>'Transactional_read-only'!F8</f>
         <v>100003.96122000001</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <f>'Transactional_read-write'!F8</f>
         <v>100034.890188</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f>'NoTransactional_read-only'!F8</f>
         <v>100169.60436</v>
       </c>
-      <c r="E10" s="16"/>
+      <c r="E10" s="15"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f>'Transactional_read-only'!F9</f>
         <v>100009.00303000001</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <f>'Transactional_read-write'!F9</f>
         <v>100039.11359399998</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>'NoTransactional_read-only'!F9</f>
         <v>100583.95008</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="15"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>'Transactional_read-only'!F10</f>
         <v>100380.06355199999</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <f>'Transactional_read-write'!F10</f>
         <v>100087.958432</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>'NoTransactional_read-only'!F10</f>
         <v>101708.840815</v>
       </c>
-      <c r="E12" s="16"/>
+      <c r="E12" s="15"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f>'Transactional_read-only'!F11</f>
         <v>100416.899401</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <f>'Transactional_read-write'!F11</f>
         <v>100115.11117999999</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>'NoTransactional_read-only'!F11</f>
         <v>105439.041648</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="15"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f>'Transactional_read-only'!F12</f>
         <v>100198.07979999999</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <f>'Transactional_read-write'!F12</f>
         <v>100082.00991000001</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>'NoTransactional_read-only'!F12</f>
         <v>104009.33134600001</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="15"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <f>'Transactional_read-only'!F13</f>
         <v>100146.978516</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <f>'Transactional_read-write'!F13</f>
         <v>100074.08149200001</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f>'NoTransactional_read-only'!F13</f>
         <v>103579.30165400001</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="15"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <f>'Transactional_read-only'!F14</f>
         <v>100067.798964</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <f>'Transactional_read-write'!F14</f>
         <v>100043.89631500001</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <f>'NoTransactional_read-only'!F14</f>
         <v>103059.1969</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <f>'Transactional_read-only'!F15</f>
         <v>100036.212424</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <f>'Transactional_read-write'!F15</f>
         <v>100043.804752</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <f>'NoTransactional_read-only'!F15</f>
         <v>103971.913614</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <f>'Transactional_read-only'!F16</f>
         <v>100040.15980200001</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <f>'Transactional_read-write'!F16</f>
         <v>100051.88645999999</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <f>'NoTransactional_read-only'!F16</f>
         <v>103125.236896</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <f>'Transactional_read-only'!F17</f>
         <v>100022.76066600002</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <f>'Transactional_read-write'!F17</f>
         <v>100054.727264</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f>'NoTransactional_read-only'!F17</f>
         <v>103567.203068</v>
       </c>
-      <c r="E19" s="16"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <f>'Transactional_read-only'!F18</f>
         <v>100028.87972099999</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <f>'Transactional_read-write'!F18</f>
         <v>100057.864632</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <f>'NoTransactional_read-only'!F18</f>
         <v>104257.204251</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <f>'Transactional_read-only'!F19</f>
         <v>100034.205246</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <f>'Transactional_read-write'!F19</f>
         <v>100042.75137600001</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <f>'NoTransactional_read-only'!F19</f>
         <v>103763.58719999999</v>
       </c>
-      <c r="E21" s="16"/>
+      <c r="E21" s="15"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <f>'Transactional_read-only'!F20</f>
         <v>100030.284508</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <f>'Transactional_read-write'!F20</f>
         <v>100053.79586999999</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <f>'NoTransactional_read-only'!F20</f>
         <v>103409.89788600001</v>
       </c>
-      <c r="E22" s="16"/>
+      <c r="E22" s="15"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <f>'Transactional_read-only'!F21</f>
         <v>100041.04955</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <f>'Transactional_read-write'!F21</f>
         <v>100055.30773199999</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <f>'NoTransactional_read-only'!F21</f>
         <v>103398.242229</v>
       </c>
-      <c r="E23" s="16"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <f>'Transactional_read-only'!F22</f>
         <v>100055.22600899999</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <f>'Transactional_read-write'!F22</f>
         <v>100045.13414400001</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <f>'NoTransactional_read-only'!F22</f>
         <v>103698.400754</v>
       </c>
-      <c r="E24" s="16"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <f>'Transactional_read-only'!F23</f>
         <v>100051.77084</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <f>'Transactional_read-write'!F23</f>
         <v>100045.89783999999</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <f>'NoTransactional_read-only'!F23</f>
         <v>103898.92032899999</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <f>'Transactional_read-only'!F24</f>
         <v>100041.822139</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <f>'Transactional_read-write'!F24</f>
         <v>100047.136682</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <f>'NoTransactional_read-only'!F24</f>
         <v>103131.82915800001</v>
       </c>
-      <c r="E26" s="16"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <f>'Transactional_read-only'!F25</f>
         <v>100035.021987</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="13">
         <f>'Transactional_read-write'!F25</f>
         <v>100054.743176</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="14">
         <f>'NoTransactional_read-only'!F25</f>
         <v>103734.41639400001</v>
       </c>
-      <c r="E27" s="16"/>
+      <c r="E27" s="15"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <f>'Transactional_read-only'!F26</f>
         <v>100027.002867</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="13">
         <f>'Transactional_read-write'!F26</f>
         <v>100050.10683599999</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D28" s="14">
         <f>'NoTransactional_read-only'!F26</f>
         <v>103762.42267499999</v>
       </c>
-      <c r="E28" s="16"/>
+      <c r="E28" s="15"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <f>'Transactional_read-only'!F27</f>
         <v>100032.620142</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="13">
         <f>'Transactional_read-write'!F27</f>
         <v>100051.891617</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="14">
         <f>'NoTransactional_read-only'!F27</f>
         <v>103204.92670400001</v>
       </c>
-      <c r="E29" s="16"/>
+      <c r="E29" s="15"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
@@ -26021,333 +27122,333 @@
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <f>'Transactional_read-only'!G5</f>
         <v>1</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="13">
         <f>'Transactional_read-write'!G5</f>
         <v>1</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <f>'NoTransactional_read-only'!G5</f>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <f>'Transactional_read-only'!G6</f>
         <v>2.4344486282693558</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="13">
         <f>'Transactional_read-write'!G6</f>
         <v>2.1017792024854858</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <f>'NoTransactional_read-only'!G6</f>
         <v>0.42922083637512104</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <f>'Transactional_read-only'!G7</f>
         <v>5.8630382009169582</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="13">
         <f>'Transactional_read-write'!G7</f>
         <v>5.2339846008842432</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <f>'NoTransactional_read-only'!G7</f>
         <v>0.20578465520315717</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <f>'Transactional_read-only'!G8</f>
         <v>11.30350465687283</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="13">
         <f>'Transactional_read-write'!G8</f>
         <v>11.806683210011464</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <f>'NoTransactional_read-only'!G8</f>
         <v>0.11452747624688732</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <f>'Transactional_read-only'!G9</f>
         <v>11.680402434564694</v>
       </c>
-      <c r="C38" s="14">
+      <c r="C38" s="13">
         <f>'Transactional_read-write'!G9</f>
         <v>14.160596332422559</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <f>'NoTransactional_read-only'!G9</f>
         <v>8.2010908275516409E-2</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <f>'Transactional_read-only'!G10</f>
         <v>18.695989727021924</v>
       </c>
-      <c r="C39" s="14">
+      <c r="C39" s="13">
         <f>'Transactional_read-write'!G10</f>
         <v>18.840858727577888</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <f>'NoTransactional_read-only'!G10</f>
         <v>4.3491121544152272E-2</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <f>'Transactional_read-only'!G11</f>
         <v>22.019896642207815</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="13">
         <f>'Transactional_read-write'!G11</f>
         <v>20.892084840333691</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <f>'NoTransactional_read-only'!G11</f>
         <v>3.7730361788388476E-2</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <f>'Transactional_read-only'!G12</f>
         <v>27.30879916223704</v>
       </c>
-      <c r="C41" s="14">
+      <c r="C41" s="13">
         <f>'Transactional_read-write'!G12</f>
         <v>23.946989708762136</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <f>'NoTransactional_read-only'!G12</f>
         <v>3.2648904843965189E-2</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <f>'Transactional_read-only'!G13</f>
         <v>27.300475736132093</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="13">
         <f>'Transactional_read-write'!G13</f>
         <v>23.974559303227743</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <f>'NoTransactional_read-only'!G13</f>
         <v>2.9711060731805541E-2</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <f>'Transactional_read-only'!G14</f>
         <v>27.254426871457014</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="13">
         <f>'Transactional_read-write'!G14</f>
         <v>24.150753198731014</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <f>'NoTransactional_read-only'!G14</f>
         <v>2.9706557222356936E-2</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <f>'Transactional_read-only'!G15</f>
         <v>27.217519685039367</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="13">
         <f>'Transactional_read-write'!G15</f>
         <v>24.194264955358083</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <f>'NoTransactional_read-only'!G15</f>
         <v>2.9330961410614712E-2</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <f>'Transactional_read-only'!G16</f>
         <v>27.04441002146331</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="13">
         <f>'Transactional_read-write'!G16</f>
         <v>26.282172988545167</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <f>'NoTransactional_read-only'!G16</f>
         <v>2.9523540673855115E-2</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <f>'Transactional_read-only'!G17</f>
         <v>26.950126237850423</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="13">
         <f>'Transactional_read-write'!G17</f>
         <v>27.149861121608346</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <f>'NoTransactional_read-only'!G17</f>
         <v>2.9642490489815689E-2</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <f>'Transactional_read-only'!G18</f>
         <v>27.020644382799844</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <f>'Transactional_read-write'!G18</f>
         <v>26.844510144602626</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <f>'NoTransactional_read-only'!G18</f>
         <v>2.9431995956965901E-2</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <f>'Transactional_read-only'!G19</f>
         <v>26.863676668101032</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="13">
         <f>'Transactional_read-write'!G19</f>
         <v>24.932185523541811</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <f>'NoTransactional_read-only'!G19</f>
         <v>2.9480928546772527E-2</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <f>'Transactional_read-only'!G20</f>
         <v>26.808792910496319</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="13">
         <f>'Transactional_read-write'!G20</f>
         <v>25.925919076187469</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <f>'NoTransactional_read-only'!G20</f>
         <v>3.0346557903572321E-2</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <f>'Transactional_read-only'!G21</f>
         <v>26.833585151416475</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="13">
         <f>'Transactional_read-write'!G21</f>
         <v>26.322978208897808</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <f>'NoTransactional_read-only'!G21</f>
         <v>3.1023460600960971E-2</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <f>'Transactional_read-only'!G22</f>
         <v>26.798156783932672</v>
       </c>
-      <c r="C51" s="14">
+      <c r="C51" s="13">
         <f>'Transactional_read-write'!G22</f>
         <v>25.926152971744074</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <f>'NoTransactional_read-only'!G22</f>
         <v>3.0900085523993967E-2</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <f>'Transactional_read-only'!G23</f>
         <v>26.740068922102449</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="13">
         <f>'Transactional_read-write'!G23</f>
         <v>26.084054169351838</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="13">
         <f>'NoTransactional_read-only'!G23</f>
         <v>3.1247379200088053E-2</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <f>'Transactional_read-only'!G24</f>
         <v>26.819786628826588</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="13">
         <f>'Transactional_read-write'!G24</f>
         <v>26.088671717194643</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="13">
         <f>'NoTransactional_read-only'!G24</f>
         <v>3.0703291329671659E-2</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <f>'Transactional_read-only'!G25</f>
         <v>26.809665098544443</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="13">
         <f>'Transactional_read-write'!G25</f>
         <v>26.520962919212241</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="13">
         <f>'NoTransactional_read-only'!G25</f>
         <v>3.0779072413855836E-2</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <f>'Transactional_read-only'!G26</f>
         <v>26.751180018568654</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="13">
         <f>'Transactional_read-write'!G26</f>
         <v>26.624159239563458</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="13">
         <f>'NoTransactional_read-only'!G26</f>
         <v>3.1278897180009396E-2</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <f>'Transactional_read-only'!G27</f>
         <v>26.493849626090704</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="13">
         <f>'Transactional_read-write'!G27</f>
         <v>26.601855066024246</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="13">
         <f>'NoTransactional_read-only'!G27</f>
         <v>3.1674381605595409E-2</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -26361,333 +27462,333 @@
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <f>'Transactional_read-only'!H5</f>
         <v>412.02969999999999</v>
       </c>
-      <c r="C62" s="14">
+      <c r="C62" s="13">
         <f>'Transactional_read-write'!H5</f>
         <v>574.75170000000003</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="13">
         <f>'NoTransactional_read-only'!H5</f>
         <v>4974.0600000000004</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <f>'Transactional_read-only'!H6</f>
         <v>338.49939999999998</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="13">
         <f>'Transactional_read-write'!H6</f>
         <v>546.91920000000005</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="13">
         <f>'NoTransactional_read-only'!H6</f>
         <v>23177.16</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <f>'Transactional_read-only'!H7</f>
         <v>281.10320000000002</v>
       </c>
-      <c r="C64" s="14">
+      <c r="C64" s="13">
         <f>'Transactional_read-write'!H7</f>
         <v>439.24599999999998</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="13">
         <f>'NoTransactional_read-only'!H7</f>
         <v>72513.569999999992</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <f>'Transactional_read-only'!H8</f>
         <v>291.61200000000002</v>
       </c>
-      <c r="C65" s="14">
+      <c r="C65" s="13">
         <f>'Transactional_read-write'!H8</f>
         <v>389.44159999999999</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="13">
         <f>'NoTransactional_read-only'!H8</f>
         <v>173724.6</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <f>'Transactional_read-only'!H9</f>
         <v>352.75300000000004</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="13">
         <f>'Transactional_read-write'!H9</f>
         <v>405.88099999999997</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="13">
         <f>'NoTransactional_read-only'!H9</f>
         <v>303256</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <f>'Transactional_read-only'!H10</f>
         <v>352.61439999999999</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="13">
         <f>'Transactional_read-write'!H10</f>
         <v>488.08960000000002</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="13">
         <f>'NoTransactional_read-only'!H10</f>
         <v>686217.3</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <f>'Transactional_read-only'!H11</f>
         <v>374.23400000000004</v>
       </c>
-      <c r="C68" s="14">
+      <c r="C68" s="13">
         <f>'Transactional_read-write'!H11</f>
         <v>550.21</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="13">
         <f>'NoTransactional_read-only'!H11</f>
         <v>922822.32000000007</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <f>'Transactional_read-only'!H12</f>
         <v>452.63400000000001</v>
       </c>
-      <c r="C69" s="14">
+      <c r="C69" s="13">
         <f>'Transactional_read-write'!H12</f>
         <v>720.03000000000009</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="13">
         <f>'NoTransactional_read-only'!H12</f>
         <v>1218799.8400000001</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <f>'Transactional_read-only'!H13</f>
         <v>482.95679999999999</v>
       </c>
-      <c r="C70" s="14">
+      <c r="C70" s="13">
         <f>'Transactional_read-write'!H13</f>
         <v>767.14880000000005</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="13">
         <f>'NoTransactional_read-only'!H13</f>
         <v>1506729.78</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="14">
+      <c r="B71" s="13">
         <f>'Transactional_read-only'!H14</f>
         <v>604.71600000000001</v>
       </c>
-      <c r="C71" s="14">
+      <c r="C71" s="13">
         <f>'Transactional_read-write'!H14</f>
         <v>951.94</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="13">
         <f>'NoTransactional_read-only'!H14</f>
         <v>1674398</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="14">
+      <c r="B72" s="13">
         <f>'Transactional_read-only'!H15</f>
         <v>756.92000000000007</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="13">
         <f>'Transactional_read-write'!H15</f>
         <v>1187.7850000000001</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="13">
         <f>'NoTransactional_read-only'!H15</f>
         <v>1865423.34</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="14">
+      <c r="B73" s="13">
         <f>'Transactional_read-only'!H16</f>
         <v>914.11800000000005</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="13">
         <f>'Transactional_read-write'!H16</f>
         <v>1312.1100000000001</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="13">
         <f>'NoTransactional_read-only'!H16</f>
         <v>2021733.12</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="14">
+      <c r="B74" s="13">
         <f>'Transactional_read-only'!H17</f>
         <v>978.47040000000004</v>
       </c>
-      <c r="C74" s="14">
+      <c r="C74" s="13">
         <f>'Transactional_read-write'!H17</f>
         <v>1354.8543999999999</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="13">
         <f>'NoTransactional_read-only'!H17</f>
         <v>2181421.9700000002</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <f>'Transactional_read-only'!H18</f>
         <v>1067.4089999999999</v>
       </c>
-      <c r="C75" s="14">
+      <c r="C75" s="13">
         <f>'Transactional_read-write'!H18</f>
         <v>1498.7279999999998</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="13">
         <f>'NoTransactional_read-only'!H18</f>
         <v>2366025.06</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <f>'Transactional_read-only'!H19</f>
         <v>1227.0239999999999</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="13">
         <f>'Transactional_read-write'!H19</f>
         <v>1844.2080000000001</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="13">
         <f>'NoTransactional_read-only'!H19</f>
         <v>2530819.2000000002</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="14">
+      <c r="B77" s="13">
         <f>'Transactional_read-only'!H20</f>
         <v>1383.2279999999998</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="13">
         <f>'Transactional_read-write'!H20</f>
         <v>1995.21</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="13">
         <f>'NoTransactional_read-only'!H20</f>
         <v>2622536.64</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="14">
+      <c r="B78" s="13">
         <f>'Transactional_read-only'!H21</f>
         <v>1535.5</v>
       </c>
-      <c r="C78" s="14">
+      <c r="C78" s="13">
         <f>'Transactional_read-write'!H21</f>
         <v>2183.46</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="13">
         <f>'NoTransactional_read-only'!H21</f>
         <v>2725647.57</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" s="14">
+      <c r="B79" s="13">
         <f>'Transactional_read-only'!H22</f>
         <v>1845.0359999999998</v>
       </c>
-      <c r="C79" s="14">
+      <c r="C79" s="13">
         <f>'Transactional_read-write'!H22</f>
         <v>2660.2560000000003</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="13">
         <f>'NoTransactional_read-only'!H22</f>
         <v>2897502.66</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" s="14">
+      <c r="B80" s="13">
         <f>'Transactional_read-only'!H23</f>
         <v>1972.3136</v>
       </c>
-      <c r="C80" s="14">
+      <c r="C80" s="13">
         <f>'Transactional_read-write'!H23</f>
         <v>2820.4288000000001</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="13">
         <f>'NoTransactional_read-only'!H23</f>
         <v>3024482.13</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" s="14">
+      <c r="B81" s="13">
         <f>'Transactional_read-only'!H24</f>
         <v>1997.1769999999999</v>
       </c>
-      <c r="C81" s="14">
+      <c r="C81" s="13">
         <f>'Transactional_read-write'!H24</f>
         <v>2863.991</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="13">
         <f>'NoTransactional_read-only'!H24</f>
         <v>3240082.6</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <f>'Transactional_read-only'!H25</f>
         <v>2151.6179999999999</v>
       </c>
-      <c r="C82" s="14">
+      <c r="C82" s="13">
         <f>'Transactional_read-write'!H25</f>
         <v>3034.0240000000003</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="13">
         <f>'NoTransactional_read-only'!H25</f>
         <v>3393710.46</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="14">
+      <c r="B83" s="13">
         <f>'Transactional_read-only'!H26</f>
         <v>2217.9312</v>
       </c>
-      <c r="C83" s="14">
+      <c r="C83" s="13">
         <f>'Transactional_read-write'!H26</f>
         <v>3108.6143999999999</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="13">
         <f>'NoTransactional_read-only'!H26</f>
         <v>3498503.1399999997</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <f>'Transactional_read-only'!H27</f>
         <v>3965.7345</v>
       </c>
-      <c r="C84" s="14">
+      <c r="C84" s="13">
         <f>'Transactional_read-write'!H27</f>
         <v>5509.4534999999996</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="13">
         <f>'NoTransactional_read-only'!H27</f>
         <v>3611858.3600000003</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
@@ -26701,323 +27802,323 @@
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" s="14">
+      <c r="B89" s="13">
         <f>'Transactional_read-only'!I5</f>
         <v>1</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="13">
         <f>'Transactional_read-write'!I5</f>
         <v>1</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="13">
         <f>'NoTransactional_read-only'!I5</f>
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <f>'Transactional_read-only'!I6</f>
         <v>1.2172243141346779</v>
       </c>
-      <c r="C90" s="14">
+      <c r="C90" s="13">
         <f>'Transactional_read-write'!I6</f>
         <v>1.0508896012427429</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="13">
         <f>'NoTransactional_read-only'!I6</f>
         <v>0.21461041818756052</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B91" s="14">
+      <c r="B91" s="13">
         <f>'Transactional_read-only'!I7</f>
         <v>1.4657595502292395</v>
       </c>
-      <c r="C91" s="14">
+      <c r="C91" s="13">
         <f>'Transactional_read-write'!I7</f>
         <v>1.3084961502210608</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="13">
         <f>'NoTransactional_read-only'!I7</f>
         <v>6.8594885067719061E-2</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B92" s="14">
+      <c r="B92" s="13">
         <f>'Transactional_read-only'!I8</f>
         <v>1.4129380821091038</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="13">
         <f>'Transactional_read-write'!I8</f>
         <v>1.475835401251433</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="13">
         <f>'NoTransactional_read-only'!I8</f>
         <v>2.863186906172183E-2</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B93" s="14">
+      <c r="B93" s="13">
         <f>'Transactional_read-only'!I9</f>
         <v>1.1680402434564694</v>
       </c>
-      <c r="C93" s="14">
+      <c r="C93" s="13">
         <f>'Transactional_read-write'!I9</f>
         <v>1.4160596332422559</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="13">
         <f>'NoTransactional_read-only'!I9</f>
         <v>1.6402181655103279E-2</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <f>'Transactional_read-only'!I10</f>
         <v>1.1684993579388703</v>
       </c>
-      <c r="C94" s="14">
+      <c r="C94" s="13">
         <f>'Transactional_read-write'!I10</f>
         <v>1.177553670473618</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="13">
         <f>'NoTransactional_read-only'!I10</f>
         <v>7.2485202573587112E-3</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="14">
+      <c r="B95" s="13">
         <f>'Transactional_read-only'!I11</f>
         <v>1.1009948321103906</v>
       </c>
-      <c r="C95" s="14">
+      <c r="C95" s="13">
         <f>'Transactional_read-write'!I11</f>
         <v>1.0446042420166846</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="13">
         <f>'NoTransactional_read-only'!I11</f>
         <v>5.3900516840554961E-3</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="14">
+      <c r="B96" s="13">
         <f>'Transactional_read-only'!I12</f>
         <v>0.91029330540790121</v>
       </c>
-      <c r="C96" s="14">
+      <c r="C96" s="13">
         <f>'Transactional_read-write'!I12</f>
         <v>0.79823299029207107</v>
       </c>
-      <c r="D96" s="14">
+      <c r="D96" s="13">
         <f>'NoTransactional_read-only'!I12</f>
         <v>4.0811131054956486E-3</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B97" s="14">
+      <c r="B97" s="13">
         <f>'Transactional_read-only'!I13</f>
         <v>0.8531398667541279</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="13">
         <f>'Transactional_read-write'!I13</f>
         <v>0.74920497822586696</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="13">
         <f>'NoTransactional_read-only'!I13</f>
         <v>3.3012289702006158E-3</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B98" s="14">
+      <c r="B98" s="13">
         <f>'Transactional_read-only'!I14</f>
         <v>0.68136067178642534</v>
       </c>
-      <c r="C98" s="14">
+      <c r="C98" s="13">
         <f>'Transactional_read-write'!I14</f>
         <v>0.6037688299682753</v>
       </c>
-      <c r="D98" s="14">
+      <c r="D98" s="13">
         <f>'NoTransactional_read-only'!I14</f>
         <v>2.9706557222356931E-3</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="14">
+      <c r="B99" s="13">
         <f>'Transactional_read-only'!I15</f>
         <v>0.54435039370078731</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="13">
         <f>'Transactional_read-write'!I15</f>
         <v>0.48388529910716166</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="13">
         <f>'NoTransactional_read-only'!I15</f>
         <v>2.6664510373286101E-3</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="14">
+      <c r="B100" s="13">
         <f>'Transactional_read-only'!I16</f>
         <v>0.45074016702438852</v>
       </c>
-      <c r="C100" s="14">
+      <c r="C100" s="13">
         <f>'Transactional_read-write'!I16</f>
         <v>0.43803621647575275</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="13">
         <f>'NoTransactional_read-only'!I16</f>
         <v>2.4602950561545926E-3</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" s="14">
+      <c r="B101" s="13">
         <f>'Transactional_read-only'!I17</f>
         <v>0.42109572246641286</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="13">
         <f>'Transactional_read-write'!I17</f>
         <v>0.42421658002513041</v>
       </c>
-      <c r="D101" s="14">
+      <c r="D101" s="13">
         <f>'NoTransactional_read-only'!I17</f>
         <v>2.2801915761396681E-3</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="14">
+      <c r="B102" s="13">
         <f>'Transactional_read-only'!I18</f>
         <v>0.38600920546856926</v>
       </c>
-      <c r="C102" s="14">
+      <c r="C102" s="13">
         <f>'Transactional_read-write'!I18</f>
         <v>0.38349300206575182</v>
       </c>
-      <c r="D102" s="14">
+      <c r="D102" s="13">
         <f>'NoTransactional_read-only'!I18</f>
         <v>2.1022854254975644E-3</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="14">
+      <c r="B103" s="13">
         <f>'Transactional_read-only'!I19</f>
         <v>0.33579595835126291</v>
       </c>
-      <c r="C103" s="14">
+      <c r="C103" s="13">
         <f>'Transactional_read-write'!I19</f>
         <v>0.31165231904427265</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D103" s="13">
         <f>'NoTransactional_read-only'!I19</f>
         <v>1.9653952364515016E-3</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="14">
+      <c r="B104" s="13">
         <f>'Transactional_read-only'!I20</f>
         <v>0.29787547678329246</v>
       </c>
-      <c r="C104" s="14">
+      <c r="C104" s="13">
         <f>'Transactional_read-write'!I20</f>
         <v>0.28806576751319413</v>
       </c>
-      <c r="D104" s="14">
+      <c r="D104" s="13">
         <f>'NoTransactional_read-only'!I20</f>
         <v>1.8966598689732701E-3</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="14">
+      <c r="B105" s="13">
         <f>'Transactional_read-only'!I21</f>
         <v>0.26833585151416478</v>
       </c>
-      <c r="C105" s="14">
+      <c r="C105" s="13">
         <f>'Transactional_read-write'!I21</f>
         <v>0.26322978208897807</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="13">
         <f>'NoTransactional_read-only'!I21</f>
         <v>1.8249094471153512E-3</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="14">
+      <c r="B106" s="13">
         <f>'Transactional_read-only'!I22</f>
         <v>0.22331797319943894</v>
       </c>
-      <c r="C106" s="14">
+      <c r="C106" s="13">
         <f>'Transactional_read-write'!I22</f>
         <v>0.21605127476453392</v>
       </c>
-      <c r="D106" s="14">
+      <c r="D106" s="13">
         <f>'NoTransactional_read-only'!I22</f>
         <v>1.7166714179996647E-3</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="14">
+      <c r="B107" s="13">
         <f>'Transactional_read-only'!I23</f>
         <v>0.20890678845392538</v>
       </c>
-      <c r="C107" s="14">
+      <c r="C107" s="13">
         <f>'Transactional_read-write'!I23</f>
         <v>0.20378167319806123</v>
       </c>
-      <c r="D107" s="14">
+      <c r="D107" s="13">
         <f>'NoTransactional_read-only'!I23</f>
         <v>1.6445989052677923E-3</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="14">
+      <c r="B108" s="13">
         <f>'Transactional_read-only'!I24</f>
         <v>0.20630605099097377</v>
       </c>
-      <c r="C108" s="14">
+      <c r="C108" s="13">
         <f>'Transactional_read-write'!I24</f>
         <v>0.20068209013226648</v>
       </c>
-      <c r="D108" s="14">
+      <c r="D108" s="13">
         <f>'NoTransactional_read-only'!I24</f>
         <v>1.535164566483583E-3</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="14">
+      <c r="B109" s="13">
         <f>'Transactional_read-only'!I25</f>
         <v>0.19149760784674602</v>
       </c>
-      <c r="C109" s="14">
+      <c r="C109" s="13">
         <f>'Transactional_read-write'!I25</f>
         <v>0.18943544942294457</v>
       </c>
-      <c r="D109" s="14">
+      <c r="D109" s="13">
         <f>'NoTransactional_read-only'!I25</f>
         <v>1.4656701149455161E-3</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="14">
+      <c r="B110" s="13">
         <f>'Transactional_read-only'!I26</f>
         <v>0.18577208346228233</v>
       </c>
-      <c r="C110" s="14">
+      <c r="C110" s="13">
         <f>'Transactional_read-write'!I26</f>
         <v>0.18488999471919065</v>
       </c>
-      <c r="D110" s="14">
+      <c r="D110" s="13">
         <f>'NoTransactional_read-only'!I26</f>
         <v>1.4217680536367907E-3</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="14">
+      <c r="B111" s="13">
         <f>'Transactional_read-only'!I27</f>
         <v>0.10389744951408118</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="13">
         <f>'Transactional_read-write'!I27</f>
         <v>0.10432100025891862</v>
       </c>
-      <c r="D111" s="14">
+      <c r="D111" s="13">
         <f>'NoTransactional_read-only'!I27</f>
         <v>1.3771470263302351E-3</v>
       </c>

--- a/SING_Practica_1/Datos.xlsx
+++ b/SING_Practica_1/Datos.xlsx
@@ -17,6 +17,9 @@
     <sheet name="NoTransactional_read-only" sheetId="3" r:id="rId3"/>
     <sheet name="comparativa de las 3" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'comparativa de las 3'!$B$88:$D$111</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24468,8 +24471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I4"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25209,8 +25212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25950,8 +25953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
+    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26690,8 +26693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SING_Practica_1/Datos.xlsx
+++ b/SING_Practica_1/Datos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Transactional_read-only" sheetId="1" r:id="rId1"/>
@@ -339,7 +339,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Transactional_read-only'!$D$4</c:f>
@@ -369,6 +369,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-only'!$D$5:$D$27</c:f>
@@ -465,183 +543,7 @@
         <c:smooth val="0"/>
         <c:axId val="474546944"/>
         <c:axId val="474547272"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Transactional_read-only'!$C$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Número de hilos</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="34925" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Transactional_read-only'!$C$5:$C$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>144</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-F9CB-41B5-8F22-A98418240FEE}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="474546944"/>
@@ -650,6 +552,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -914,6 +817,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-write'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-write'!$G$5:$G$27</c:f>
@@ -1245,6 +1226,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-write'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-write'!$H$5:$H$27</c:f>
@@ -1576,6 +1635,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-write'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-write'!$I$5:$I$27</c:f>
@@ -1907,6 +2044,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'NoTransactional_read-only'!$D$5:$D$27</c:f>
@@ -2086,6 +2301,90 @@
                     </a:effectLst>
                   </c:spPr>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'NoTransactional_read-only'!$C$5:$C$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2188,6 +2487,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2252,6 +2607,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transacciones totales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2477,6 +2887,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'NoTransactional_read-only'!$E$5:$E$27</c:f>
@@ -2656,6 +3144,90 @@
                     </a:effectLst>
                   </c:spPr>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'NoTransactional_read-only'!$C$5:$C$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -2758,6 +3330,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2822,6 +3450,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2955,6 +3638,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transacciones</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> totales.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3014,8 +3726,98 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'NoTransactional_read-only'!$F$5:$F$27</c:f>
@@ -3109,6 +3911,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="557186664"/>
         <c:axId val="557188304"/>
@@ -3120,6 +3923,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3185,6 +4043,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transacciones totales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3228,6 +4141,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3280,6 +4224,44 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Coste</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44817436400588689"/>
+          <c:y val="4.3010752688172046E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3353,6 +4335,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'NoTransactional_read-only'!$H$5:$H$27</c:f>
@@ -3458,6 +4518,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3522,6 +4638,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coste</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3565,6 +4736,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3678,6 +4880,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'NoTransactional_read-only'!$G$5:$G$27</c:f>
@@ -3782,6 +5062,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3847,6 +5182,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Spped-up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3890,6 +5280,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3942,6 +5363,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Eficiencia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4001,8 +5447,98 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'NoTransactional_read-only'!$I$5:$I$27</c:f>
@@ -4096,6 +5632,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="557538248"/>
         <c:axId val="557540872"/>
@@ -4107,6 +5644,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4172,6 +5764,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4985,7 +6632,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Transactional_read-only'!$E$4</c:f>
@@ -5015,6 +6662,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-only'!$E$5:$E$27</c:f>
@@ -5111,183 +6836,7 @@
         <c:smooth val="0"/>
         <c:axId val="570942160"/>
         <c:axId val="570939208"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Transactional_read-only'!$C$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Número de hilos</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="34925" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="6"/>
-                  <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
-                  </c:spPr>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Transactional_read-only'!$C$5:$C$27</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="23"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>144</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>255</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-AF9B-4D73-9FF1-A82E66E30D48}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="570942160"/>
@@ -5296,6 +6845,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8069,6 +9619,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-only'!$F$5:$F$27</c:f>
@@ -8174,6 +9802,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8432,6 +10061,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-only'!$G$5:$G$27</c:f>
@@ -8796,6 +10503,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-only'!$H$5:$H$27</c:f>
@@ -8901,6 +10686,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9133,6 +10919,84 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-only'!$I$5:$I$27</c:f>
@@ -9238,6 +11102,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -9464,6 +11329,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-write'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-write'!$D$5:$D$27</c:f>
@@ -9643,6 +11586,90 @@
                     </a:effectLst>
                   </c:spPr>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Transactional_read-write'!$C$5:$C$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -9745,6 +11772,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10034,6 +12062,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-write'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-write'!$E$5:$E$27</c:f>
@@ -10213,6 +12319,90 @@
                     </a:effectLst>
                   </c:spPr>
                 </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Transactional_read-write'!$C$5:$C$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="23"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>255</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
                 <c:val>
                   <c:numRef>
                     <c:extLst>
@@ -10315,6 +12505,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10593,6 +12784,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Transactional_read-write'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Transactional_read-write'!$F$5:$F$27</c:f>
@@ -10697,6 +12966,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14774,7 +17044,7 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14882,11 +17152,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -14897,11 +17162,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -14933,9 +17193,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -16309,7 +18566,7 @@
 </file>
 
 <file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16417,11 +18674,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -16432,11 +18684,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -16468,9 +18715,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23550,13 +25794,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>21167</xdr:colOff>
+      <xdr:colOff>21166</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>29633</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1260572</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:to>
@@ -23586,13 +25830,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>50799</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>167217</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1290205</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>179917</xdr:rowOff>
     </xdr:to>
@@ -23694,13 +25938,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>632114</xdr:colOff>
+      <xdr:colOff>565439</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>109583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>128923</xdr:colOff>
+      <xdr:colOff>62248</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>78892</xdr:rowOff>
     </xdr:to>
@@ -23730,13 +25974,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>658411</xdr:colOff>
+      <xdr:colOff>572686</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>67252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>118341</xdr:colOff>
+      <xdr:colOff>32616</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>78894</xdr:rowOff>
     </xdr:to>
@@ -24471,8 +26715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25212,8 +27456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S73" sqref="S73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25953,8 +28197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P66" sqref="P66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26693,7 +28937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>

--- a/SING_Practica_1/Datos.xlsx
+++ b/SING_Practica_1/Datos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Lluch\Documents\Universitat de Valencia\4\2o Cuatrimestre\SING\GIT_practicas\practicasSING\SING_Practica_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios GitHub\practicasSING\SING_Practica_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactional_read-only" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,6 +552,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -617,6 +672,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transacciones por segundo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -693,7 +803,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -701,6 +810,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -999,6 +1109,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1064,6 +1229,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed-up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1408,6 +1628,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1473,6 +1748,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coste</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1817,6 +2147,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1882,6 +2267,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2628,7 +3068,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Transacciones totales</a:t>
+                  <a:t>Transacciones por segundo</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2738,7 +3178,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2746,6 +3185,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3471,7 +3911,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Tiempo (s)</a:t>
+                  <a:t>Tiempo total (segundos)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3581,7 +4021,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3589,6 +4028,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6028,6 +6468,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$B$7:$B$29</c:f>
@@ -6148,6 +6666,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$C$7:$C$29</c:f>
@@ -6268,6 +6864,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$D$7:$D$29</c:f>
@@ -6372,6 +7046,60 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6435,6 +7163,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transacciones totales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6845,6 +7626,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6910,6 +7746,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo total (segundos)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6986,7 +7877,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6994,6 +7884,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7152,6 +8043,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$B$34:$B$56</c:f>
@@ -7269,6 +8238,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$C$34:$C$56</c:f>
@@ -7386,6 +8433,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$D$34:$D$56</c:f>
@@ -7490,6 +8615,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7554,6 +8732,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed-up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7800,6 +9031,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$B$62:$B$84</c:f>
@@ -7917,6 +9226,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$C$62:$C$84</c:f>
@@ -8034,6 +9421,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$D$62:$D$84</c:f>
@@ -8138,6 +9603,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8202,6 +9720,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coste</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8448,6 +10019,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$B$89:$B$111</c:f>
@@ -8565,6 +10214,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$C$89:$C$111</c:f>
@@ -8682,6 +10409,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$D$89:$D$111</c:f>
@@ -8786,6 +10591,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -8850,6 +10708,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9094,6 +11005,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$B$62:$B$84</c:f>
@@ -9211,6 +11200,84 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'NoTransactional_read-only'!$C$5:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'comparativa de las 3'!$C$62:$C$84</c:f>
@@ -9315,6 +11382,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9379,6 +11499,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coste</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9802,6 +11975,55 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="es-ES" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="es-ES" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -9864,6 +12086,55 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="es-ES" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transacciones totales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="es-ES" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10244,6 +12515,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10310,6 +12636,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed-up</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10686,6 +13067,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -10751,6 +13187,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Coste</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11102,6 +13593,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11167,6 +13713,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Eficiencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11772,6 +14373,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11837,6 +14493,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transacciones por segundo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11913,7 +14624,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11921,6 +14631,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12505,6 +15216,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12570,6 +15336,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tiempo total (segundo)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12646,7 +15467,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12654,6 +15474,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12966,6 +15787,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nº de hilos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -13031,6 +15907,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Transacciones totales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -26712,27 +29643,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -26755,7 +29686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -26785,7 +29716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -26815,7 +29746,7 @@
         <v>1.2172243141346779</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -26845,7 +29776,7 @@
         <v>1.4657595502292395</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -26875,7 +29806,7 @@
         <v>1.4129380821091038</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -26905,7 +29836,7 @@
         <v>1.1680402434564694</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -26935,7 +29866,7 @@
         <v>1.1684993579388703</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -26965,7 +29896,7 @@
         <v>1.1009948321103906</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -26995,7 +29926,7 @@
         <v>0.91029330540790121</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -27025,7 +29956,7 @@
         <v>0.8531398667541279</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -27055,7 +29986,7 @@
         <v>0.68136067178642534</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -27085,7 +30016,7 @@
         <v>0.54435039370078731</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -27115,7 +30046,7 @@
         <v>0.45074016702438852</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -27145,7 +30076,7 @@
         <v>0.42109572246641286</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -27175,7 +30106,7 @@
         <v>0.38600920546856926</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -27205,7 +30136,7 @@
         <v>0.33579595835126291</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -27235,7 +30166,7 @@
         <v>0.29787547678329246</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -27265,7 +30196,7 @@
         <v>0.26833585151416478</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -27295,7 +30226,7 @@
         <v>0.22331797319943894</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -27325,7 +30256,7 @@
         <v>0.20890678845392538</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -27355,7 +30286,7 @@
         <v>0.20630605099097377</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -27385,7 +30316,7 @@
         <v>0.19149760784674602</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -27415,7 +30346,7 @@
         <v>0.18577208346228233</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -27453,27 +30384,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S73" sqref="S73"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -27496,7 +30427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -27526,7 +30457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -27556,7 +30487,7 @@
         <v>1.0508896012427429</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -27586,7 +30517,7 @@
         <v>1.3084961502210608</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -27616,7 +30547,7 @@
         <v>1.475835401251433</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -27646,7 +30577,7 @@
         <v>1.4160596332422559</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -27676,7 +30607,7 @@
         <v>1.177553670473618</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -27706,7 +30637,7 @@
         <v>1.0446042420166846</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -27736,7 +30667,7 @@
         <v>0.79823299029207107</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -27766,7 +30697,7 @@
         <v>0.74920497822586696</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -27796,7 +30727,7 @@
         <v>0.6037688299682753</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -27826,7 +30757,7 @@
         <v>0.48388529910716166</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -27856,7 +30787,7 @@
         <v>0.43803621647575275</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -27886,7 +30817,7 @@
         <v>0.42421658002513041</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -27916,7 +30847,7 @@
         <v>0.38349300206575182</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -27946,7 +30877,7 @@
         <v>0.31165231904427265</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -27976,7 +30907,7 @@
         <v>0.28806576751319413</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -28006,7 +30937,7 @@
         <v>0.26322978208897807</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -28036,7 +30967,7 @@
         <v>0.21605127476453392</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -28066,7 +30997,7 @@
         <v>0.20378167319806123</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -28096,7 +31027,7 @@
         <v>0.20068209013226648</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -28126,7 +31057,7 @@
         <v>0.18943544942294457</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -28156,7 +31087,7 @@
         <v>0.18488999471919065</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -28194,27 +31125,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -28237,7 +31168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -28267,7 +31198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -28297,7 +31228,7 @@
         <v>0.21461041818756052</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -28327,7 +31258,7 @@
         <v>6.8594885067719061E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -28357,7 +31288,7 @@
         <v>2.863186906172183E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -28387,7 +31318,7 @@
         <v>1.6402181655103279E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -28417,7 +31348,7 @@
         <v>7.2485202573587112E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -28447,7 +31378,7 @@
         <v>5.3900516840554961E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -28477,7 +31408,7 @@
         <v>4.0811131054956486E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -28507,7 +31438,7 @@
         <v>3.3012289702006158E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -28537,7 +31468,7 @@
         <v>2.9706557222356931E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -28567,7 +31498,7 @@
         <v>2.6664510373286101E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -28597,7 +31528,7 @@
         <v>2.4602950561545926E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -28627,7 +31558,7 @@
         <v>2.2801915761396681E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -28657,7 +31588,7 @@
         <v>2.1022854254975644E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -28687,7 +31618,7 @@
         <v>1.9653952364515016E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -28717,7 +31648,7 @@
         <v>1.8966598689732701E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -28747,7 +31678,7 @@
         <v>1.8249094471153512E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -28777,7 +31708,7 @@
         <v>1.7166714179996647E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -28807,7 +31738,7 @@
         <v>1.6445989052677923E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -28837,7 +31768,7 @@
         <v>1.535164566483583E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -28867,7 +31798,7 @@
         <v>1.4656701149455161E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -28897,7 +31828,7 @@
         <v>1.4217680536367907E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -28934,26 +31865,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
@@ -28964,7 +31895,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -28973,7 +31904,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -28982,10 +31913,10 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
@@ -28993,7 +31924,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -29005,7 +31936,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="13">
         <f>'Transactional_read-only'!F5</f>
         <v>99999.608189999999</v>
@@ -29020,7 +31951,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="13">
         <f>'Transactional_read-only'!F6</f>
         <v>99999.492748000004</v>
@@ -29035,7 +31966,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="13">
         <f>'Transactional_read-only'!F7</f>
         <v>100001.05788400001</v>
@@ -29050,7 +31981,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="13">
         <f>'Transactional_read-only'!F8</f>
         <v>100003.96122000001</v>
@@ -29065,7 +31996,7 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="13">
         <f>'Transactional_read-only'!F9</f>
         <v>100009.00303000001</v>
@@ -29080,7 +32011,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="13">
         <f>'Transactional_read-only'!F10</f>
         <v>100380.06355199999</v>
@@ -29095,7 +32026,7 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="13">
         <f>'Transactional_read-only'!F11</f>
         <v>100416.899401</v>
@@ -29110,7 +32041,7 @@
       </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="13">
         <f>'Transactional_read-only'!F12</f>
         <v>100198.07979999999</v>
@@ -29125,7 +32056,7 @@
       </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="13">
         <f>'Transactional_read-only'!F13</f>
         <v>100146.978516</v>
@@ -29140,7 +32071,7 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="13">
         <f>'Transactional_read-only'!F14</f>
         <v>100067.798964</v>
@@ -29155,7 +32086,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="13">
         <f>'Transactional_read-only'!F15</f>
         <v>100036.212424</v>
@@ -29170,7 +32101,7 @@
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="13">
         <f>'Transactional_read-only'!F16</f>
         <v>100040.15980200001</v>
@@ -29185,7 +32116,7 @@
       </c>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="13">
         <f>'Transactional_read-only'!F17</f>
         <v>100022.76066600002</v>
@@ -29200,7 +32131,7 @@
       </c>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="13">
         <f>'Transactional_read-only'!F18</f>
         <v>100028.87972099999</v>
@@ -29215,7 +32146,7 @@
       </c>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="13">
         <f>'Transactional_read-only'!F19</f>
         <v>100034.205246</v>
@@ -29230,7 +32161,7 @@
       </c>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="13">
         <f>'Transactional_read-only'!F20</f>
         <v>100030.284508</v>
@@ -29245,7 +32176,7 @@
       </c>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="13">
         <f>'Transactional_read-only'!F21</f>
         <v>100041.04955</v>
@@ -29260,7 +32191,7 @@
       </c>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="13">
         <f>'Transactional_read-only'!F22</f>
         <v>100055.22600899999</v>
@@ -29275,7 +32206,7 @@
       </c>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="13">
         <f>'Transactional_read-only'!F23</f>
         <v>100051.77084</v>
@@ -29290,7 +32221,7 @@
       </c>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <f>'Transactional_read-only'!F24</f>
         <v>100041.822139</v>
@@ -29305,7 +32236,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
         <f>'Transactional_read-only'!F25</f>
         <v>100035.021987</v>
@@ -29320,7 +32251,7 @@
       </c>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="13">
         <f>'Transactional_read-only'!F26</f>
         <v>100027.002867</v>
@@ -29335,7 +32266,7 @@
       </c>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="13">
         <f>'Transactional_read-only'!F27</f>
         <v>100032.620142</v>
@@ -29350,14 +32281,14 @@
       </c>
       <c r="E29" s="15"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -29368,7 +32299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="13">
         <f>'Transactional_read-only'!G5</f>
         <v>1</v>
@@ -29382,7 +32313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="13">
         <f>'Transactional_read-only'!G6</f>
         <v>2.4344486282693558</v>
@@ -29396,7 +32327,7 @@
         <v>0.42922083637512104</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="13">
         <f>'Transactional_read-only'!G7</f>
         <v>5.8630382009169582</v>
@@ -29410,7 +32341,7 @@
         <v>0.20578465520315717</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="13">
         <f>'Transactional_read-only'!G8</f>
         <v>11.30350465687283</v>
@@ -29424,7 +32355,7 @@
         <v>0.11452747624688732</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="13">
         <f>'Transactional_read-only'!G9</f>
         <v>11.680402434564694</v>
@@ -29438,7 +32369,7 @@
         <v>8.2010908275516409E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="13">
         <f>'Transactional_read-only'!G10</f>
         <v>18.695989727021924</v>
@@ -29452,7 +32383,7 @@
         <v>4.3491121544152272E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="13">
         <f>'Transactional_read-only'!G11</f>
         <v>22.019896642207815</v>
@@ -29466,7 +32397,7 @@
         <v>3.7730361788388476E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="13">
         <f>'Transactional_read-only'!G12</f>
         <v>27.30879916223704</v>
@@ -29480,7 +32411,7 @@
         <v>3.2648904843965189E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="13">
         <f>'Transactional_read-only'!G13</f>
         <v>27.300475736132093</v>
@@ -29494,7 +32425,7 @@
         <v>2.9711060731805541E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="13">
         <f>'Transactional_read-only'!G14</f>
         <v>27.254426871457014</v>
@@ -29508,7 +32439,7 @@
         <v>2.9706557222356936E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="13">
         <f>'Transactional_read-only'!G15</f>
         <v>27.217519685039367</v>
@@ -29522,7 +32453,7 @@
         <v>2.9330961410614712E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="13">
         <f>'Transactional_read-only'!G16</f>
         <v>27.04441002146331</v>
@@ -29536,7 +32467,7 @@
         <v>2.9523540673855115E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="13">
         <f>'Transactional_read-only'!G17</f>
         <v>26.950126237850423</v>
@@ -29550,7 +32481,7 @@
         <v>2.9642490489815689E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="13">
         <f>'Transactional_read-only'!G18</f>
         <v>27.020644382799844</v>
@@ -29564,7 +32495,7 @@
         <v>2.9431995956965901E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="13">
         <f>'Transactional_read-only'!G19</f>
         <v>26.863676668101032</v>
@@ -29578,7 +32509,7 @@
         <v>2.9480928546772527E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="13">
         <f>'Transactional_read-only'!G20</f>
         <v>26.808792910496319</v>
@@ -29592,7 +32523,7 @@
         <v>3.0346557903572321E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="13">
         <f>'Transactional_read-only'!G21</f>
         <v>26.833585151416475</v>
@@ -29606,7 +32537,7 @@
         <v>3.1023460600960971E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="13">
         <f>'Transactional_read-only'!G22</f>
         <v>26.798156783932672</v>
@@ -29620,7 +32551,7 @@
         <v>3.0900085523993967E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <f>'Transactional_read-only'!G23</f>
         <v>26.740068922102449</v>
@@ -29634,7 +32565,7 @@
         <v>3.1247379200088053E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <f>'Transactional_read-only'!G24</f>
         <v>26.819786628826588</v>
@@ -29648,7 +32579,7 @@
         <v>3.0703291329671659E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <f>'Transactional_read-only'!G25</f>
         <v>26.809665098544443</v>
@@ -29662,7 +32593,7 @@
         <v>3.0779072413855836E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <f>'Transactional_read-only'!G26</f>
         <v>26.751180018568654</v>
@@ -29676,7 +32607,7 @@
         <v>3.1278897180009396E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <f>'Transactional_read-only'!G27</f>
         <v>26.493849626090704</v>
@@ -29690,14 +32621,14 @@
         <v>3.1674381605595409E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>7</v>
       </c>
@@ -29708,7 +32639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <f>'Transactional_read-only'!H5</f>
         <v>412.02969999999999</v>
@@ -29722,7 +32653,7 @@
         <v>4974.0600000000004</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <f>'Transactional_read-only'!H6</f>
         <v>338.49939999999998</v>
@@ -29736,7 +32667,7 @@
         <v>23177.16</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <f>'Transactional_read-only'!H7</f>
         <v>281.10320000000002</v>
@@ -29750,7 +32681,7 @@
         <v>72513.569999999992</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <f>'Transactional_read-only'!H8</f>
         <v>291.61200000000002</v>
@@ -29764,7 +32695,7 @@
         <v>173724.6</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <f>'Transactional_read-only'!H9</f>
         <v>352.75300000000004</v>
@@ -29778,7 +32709,7 @@
         <v>303256</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <f>'Transactional_read-only'!H10</f>
         <v>352.61439999999999</v>
@@ -29792,7 +32723,7 @@
         <v>686217.3</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="13">
         <f>'Transactional_read-only'!H11</f>
         <v>374.23400000000004</v>
@@ -29806,7 +32737,7 @@
         <v>922822.32000000007</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <f>'Transactional_read-only'!H12</f>
         <v>452.63400000000001</v>
@@ -29820,7 +32751,7 @@
         <v>1218799.8400000001</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
         <f>'Transactional_read-only'!H13</f>
         <v>482.95679999999999</v>
@@ -29834,7 +32765,7 @@
         <v>1506729.78</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="13">
         <f>'Transactional_read-only'!H14</f>
         <v>604.71600000000001</v>
@@ -29848,7 +32779,7 @@
         <v>1674398</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <f>'Transactional_read-only'!H15</f>
         <v>756.92000000000007</v>
@@ -29862,7 +32793,7 @@
         <v>1865423.34</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <f>'Transactional_read-only'!H16</f>
         <v>914.11800000000005</v>
@@ -29876,7 +32807,7 @@
         <v>2021733.12</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
         <f>'Transactional_read-only'!H17</f>
         <v>978.47040000000004</v>
@@ -29890,7 +32821,7 @@
         <v>2181421.9700000002</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <f>'Transactional_read-only'!H18</f>
         <v>1067.4089999999999</v>
@@ -29904,7 +32835,7 @@
         <v>2366025.06</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
         <f>'Transactional_read-only'!H19</f>
         <v>1227.0239999999999</v>
@@ -29918,7 +32849,7 @@
         <v>2530819.2000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <f>'Transactional_read-only'!H20</f>
         <v>1383.2279999999998</v>
@@ -29932,7 +32863,7 @@
         <v>2622536.64</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <f>'Transactional_read-only'!H21</f>
         <v>1535.5</v>
@@ -29946,7 +32877,7 @@
         <v>2725647.57</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="13">
         <f>'Transactional_read-only'!H22</f>
         <v>1845.0359999999998</v>
@@ -29960,7 +32891,7 @@
         <v>2897502.66</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
         <f>'Transactional_read-only'!H23</f>
         <v>1972.3136</v>
@@ -29974,7 +32905,7 @@
         <v>3024482.13</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <f>'Transactional_read-only'!H24</f>
         <v>1997.1769999999999</v>
@@ -29988,7 +32919,7 @@
         <v>3240082.6</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="13">
         <f>'Transactional_read-only'!H25</f>
         <v>2151.6179999999999</v>
@@ -30002,7 +32933,7 @@
         <v>3393710.46</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="13">
         <f>'Transactional_read-only'!H26</f>
         <v>2217.9312</v>
@@ -30016,7 +32947,7 @@
         <v>3498503.1399999997</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="13">
         <f>'Transactional_read-only'!H27</f>
         <v>3965.7345</v>
@@ -30030,14 +32961,14 @@
         <v>3611858.3600000003</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
         <v>7</v>
       </c>
@@ -30048,7 +32979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89" s="13">
         <f>'Transactional_read-only'!I5</f>
         <v>1</v>
@@ -30062,7 +32993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="13">
         <f>'Transactional_read-only'!I6</f>
         <v>1.2172243141346779</v>
@@ -30076,7 +33007,7 @@
         <v>0.21461041818756052</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91" s="13">
         <f>'Transactional_read-only'!I7</f>
         <v>1.4657595502292395</v>
@@ -30090,7 +33021,7 @@
         <v>6.8594885067719061E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92" s="13">
         <f>'Transactional_read-only'!I8</f>
         <v>1.4129380821091038</v>
@@ -30104,7 +33035,7 @@
         <v>2.863186906172183E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93" s="13">
         <f>'Transactional_read-only'!I9</f>
         <v>1.1680402434564694</v>
@@ -30118,7 +33049,7 @@
         <v>1.6402181655103279E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94" s="13">
         <f>'Transactional_read-only'!I10</f>
         <v>1.1684993579388703</v>
@@ -30132,7 +33063,7 @@
         <v>7.2485202573587112E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95" s="13">
         <f>'Transactional_read-only'!I11</f>
         <v>1.1009948321103906</v>
@@ -30146,7 +33077,7 @@
         <v>5.3900516840554961E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96" s="13">
         <f>'Transactional_read-only'!I12</f>
         <v>0.91029330540790121</v>
@@ -30160,7 +33091,7 @@
         <v>4.0811131054956486E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97" s="13">
         <f>'Transactional_read-only'!I13</f>
         <v>0.8531398667541279</v>
@@ -30174,7 +33105,7 @@
         <v>3.3012289702006158E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98" s="13">
         <f>'Transactional_read-only'!I14</f>
         <v>0.68136067178642534</v>
@@ -30188,7 +33119,7 @@
         <v>2.9706557222356931E-3</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99" s="13">
         <f>'Transactional_read-only'!I15</f>
         <v>0.54435039370078731</v>
@@ -30202,7 +33133,7 @@
         <v>2.6664510373286101E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100" s="13">
         <f>'Transactional_read-only'!I16</f>
         <v>0.45074016702438852</v>
@@ -30216,7 +33147,7 @@
         <v>2.4602950561545926E-3</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="13">
         <f>'Transactional_read-only'!I17</f>
         <v>0.42109572246641286</v>
@@ -30230,7 +33161,7 @@
         <v>2.2801915761396681E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="13">
         <f>'Transactional_read-only'!I18</f>
         <v>0.38600920546856926</v>
@@ -30244,7 +33175,7 @@
         <v>2.1022854254975644E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="13">
         <f>'Transactional_read-only'!I19</f>
         <v>0.33579595835126291</v>
@@ -30258,7 +33189,7 @@
         <v>1.9653952364515016E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="13">
         <f>'Transactional_read-only'!I20</f>
         <v>0.29787547678329246</v>
@@ -30272,7 +33203,7 @@
         <v>1.8966598689732701E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105" s="13">
         <f>'Transactional_read-only'!I21</f>
         <v>0.26833585151416478</v>
@@ -30286,7 +33217,7 @@
         <v>1.8249094471153512E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106" s="13">
         <f>'Transactional_read-only'!I22</f>
         <v>0.22331797319943894</v>
@@ -30300,7 +33231,7 @@
         <v>1.7166714179996647E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107" s="13">
         <f>'Transactional_read-only'!I23</f>
         <v>0.20890678845392538</v>
@@ -30314,7 +33245,7 @@
         <v>1.6445989052677923E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108" s="13">
         <f>'Transactional_read-only'!I24</f>
         <v>0.20630605099097377</v>
@@ -30328,7 +33259,7 @@
         <v>1.535164566483583E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109" s="13">
         <f>'Transactional_read-only'!I25</f>
         <v>0.19149760784674602</v>
@@ -30342,7 +33273,7 @@
         <v>1.4656701149455161E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110" s="13">
         <f>'Transactional_read-only'!I26</f>
         <v>0.18577208346228233</v>
@@ -30356,7 +33287,7 @@
         <v>1.4217680536367907E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111" s="13">
         <f>'Transactional_read-only'!I27</f>
         <v>0.10389744951408118</v>

--- a/SING_Practica_1/Datos.xlsx
+++ b/SING_Practica_1/Datos.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios GitHub\practicasSING\SING_Practica_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Lluch\Documents\Universitat de Valencia\4\2o Cuatrimestre\SING\GIT_practicas\practicasSING\SING_Practica_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Transactional_read-only" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,10 +294,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -315,7 +315,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -352,22 +352,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -540,6 +552,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="474546944"/>
         <c:axId val="474547272"/>
@@ -559,7 +572,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -591,7 +604,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -613,7 +626,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -679,7 +692,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -711,7 +724,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -803,6 +816,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -810,7 +824,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -852,10 +865,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -873,7 +886,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -910,22 +923,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1098,6 +1117,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="550994408"/>
         <c:axId val="550996048"/>
@@ -1116,7 +1136,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1148,7 +1168,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1170,7 +1190,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1236,7 +1256,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1268,7 +1288,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1327,6 +1347,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1371,10 +1422,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1392,7 +1443,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1429,22 +1480,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1617,6 +1674,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="547467032"/>
         <c:axId val="547465392"/>
@@ -1635,7 +1693,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1667,7 +1725,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1689,7 +1747,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -1755,7 +1813,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1787,7 +1845,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1846,6 +1904,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1890,10 +1979,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1911,7 +2000,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1948,22 +2037,28 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -2136,6 +2231,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="482261600"/>
         <c:axId val="482258648"/>
@@ -2154,7 +2250,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2186,7 +2282,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2208,7 +2304,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -2274,7 +2370,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2306,7 +2402,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2365,6 +2461,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3178,6 +3305,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3185,7 +3313,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4021,6 +4148,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4028,7 +4156,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7183,7 +7310,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Transacciones totales</a:t>
+                  <a:t>Transacciones </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7343,10 +7470,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -7357,7 +7484,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7389,7 +7516,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7426,22 +7553,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -7614,6 +7753,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="570942160"/>
         <c:axId val="570939208"/>
@@ -7633,7 +7773,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7665,7 +7805,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7687,7 +7827,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -7753,7 +7893,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7785,7 +7925,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7877,6 +8017,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7884,7 +8025,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8752,7 +8892,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speed-up</a:t>
+                  <a:t>Incremento de velocidad</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9740,7 +9880,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Coste</a:t>
+                  <a:t>operaciones</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11519,7 +11659,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Coste</a:t>
+                  <a:t>operaciones</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11679,10 +11819,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -11771,7 +11911,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11782,11 +11922,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -12226,10 +12366,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -12311,7 +12451,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -12322,11 +12462,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -12778,10 +12918,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -12863,7 +13003,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -12874,11 +13014,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -13329,10 +13469,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -13389,7 +13529,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -13400,11 +13540,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -13855,10 +13995,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -13876,7 +14016,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -13913,22 +14053,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -14101,6 +14253,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="461423528"/>
         <c:axId val="461425496"/>
@@ -14128,63 +14281,33 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="34925" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent4">
+                        <a:shade val="76000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="circle"/>
-                  <c:size val="6"/>
+                  <c:size val="5"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:shade val="76000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent1"/>
+                        <a:schemeClr val="accent4">
+                          <a:shade val="76000"/>
+                        </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:marker>
                 <c:cat>
@@ -14380,7 +14503,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -14412,7 +14535,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -14434,7 +14557,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -14500,7 +14623,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -14532,7 +14655,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -14624,6 +14747,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -14631,7 +14755,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -14673,10 +14796,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -14687,7 +14810,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14719,7 +14842,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -14756,22 +14879,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -14944,6 +15079,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="470007040"/>
         <c:axId val="470007696"/>
@@ -14971,63 +15107,33 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:ln w="34925" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent4">
+                        <a:shade val="76000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="circle"/>
-                  <c:size val="6"/>
+                  <c:size val="5"/>
                   <c:spPr>
-                    <a:gradFill rotWithShape="1">
-                      <a:gsLst>
-                        <a:gs pos="0">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="103000"/>
-                            <a:lumMod val="102000"/>
-                            <a:tint val="94000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="50000">
-                          <a:schemeClr val="accent1">
-                            <a:satMod val="110000"/>
-                            <a:lumMod val="100000"/>
-                            <a:shade val="100000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                        <a:gs pos="100000">
-                          <a:schemeClr val="accent1">
-                            <a:lumMod val="99000"/>
-                            <a:satMod val="120000"/>
-                            <a:shade val="78000"/>
-                          </a:schemeClr>
-                        </a:gs>
-                      </a:gsLst>
-                      <a:lin ang="5400000" scaled="0"/>
-                    </a:gradFill>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4">
+                        <a:shade val="76000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent1"/>
+                        <a:schemeClr val="accent4">
+                          <a:shade val="76000"/>
+                        </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
-                    <a:effectLst>
-                      <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                        <a:srgbClr val="000000">
-                          <a:alpha val="63000"/>
-                        </a:srgbClr>
-                      </a:outerShdw>
-                    </a:effectLst>
+                    <a:effectLst/>
                   </c:spPr>
                 </c:marker>
                 <c:cat>
@@ -15223,7 +15329,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -15255,7 +15361,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -15277,7 +15383,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -15343,7 +15449,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -15375,7 +15481,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -15467,6 +15573,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -15474,7 +15581,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -15516,10 +15622,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -15530,7 +15636,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -15562,7 +15668,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -15588,22 +15694,28 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -15776,6 +15888,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="473599888"/>
         <c:axId val="473597920"/>
@@ -15794,7 +15907,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -15826,7 +15939,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -15848,7 +15961,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -15914,7 +16027,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -15928,7 +16041,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Transacciones totales</a:t>
+                  <a:t>Transacciones </a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -15946,7 +16059,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -16043,162 +16156,26 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -16483,42 +16460,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -16683,287 +16626,49 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16974,7 +16679,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -16987,7 +16692,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -17004,7 +16709,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -17020,7 +16725,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -17064,20 +16769,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -17086,13 +16791,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -17104,10 +16809,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -17116,17 +16821,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -17230,8 +16934,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -17321,20 +17031,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -17347,17 +17057,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -17389,7 +17088,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -17398,13 +17097,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -17458,14 +17158,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17476,7 +17182,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -17489,7 +17195,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -17506,7 +17212,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -17522,7 +17228,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -17566,20 +17272,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -17588,13 +17294,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -17606,10 +17312,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -17618,17 +17324,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -17732,8 +17437,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -17823,20 +17534,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -17849,17 +17560,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -17891,7 +17591,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -17900,13 +17600,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -17960,14 +17661,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17978,7 +17685,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -17991,7 +17698,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -18008,7 +17715,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -18024,7 +17731,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -18068,20 +17775,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -18090,13 +17797,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -18108,10 +17815,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -18120,17 +17827,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -18234,8 +17940,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -18325,20 +18037,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -18351,17 +18063,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -18393,7 +18094,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -18402,13 +18103,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -18462,14 +18164,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -18480,7 +18188,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -18493,7 +18201,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -18510,7 +18218,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -18526,7 +18234,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -18570,20 +18278,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -18592,13 +18300,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -18610,10 +18318,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -18622,17 +18330,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -18736,8 +18443,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -18827,20 +18540,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -18853,17 +18566,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -18895,7 +18597,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -18904,13 +18606,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -18964,8 +18667,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -22496,7 +22205,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -22507,7 +22216,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -22520,7 +22229,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -22537,7 +22246,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -22553,7 +22262,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -22597,20 +22306,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -22619,13 +22328,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -22637,10 +22346,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -22649,17 +22358,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -22763,8 +22471,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -22854,20 +22568,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -22880,17 +22594,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -22922,7 +22625,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -22931,13 +22634,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -22991,8 +22695,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -26994,7 +26704,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -27005,7 +26715,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -27018,7 +26728,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -27035,7 +26745,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -27051,7 +26761,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -27095,20 +26805,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -27117,13 +26827,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -27135,10 +26845,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -27147,17 +26857,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -27261,8 +26970,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -27352,20 +27067,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -27378,17 +27093,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -27420,7 +27124,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -27429,13 +27133,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -27489,14 +27194,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -27507,7 +27218,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -27520,7 +27231,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -27537,7 +27248,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -27553,7 +27264,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -27597,20 +27308,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -27619,13 +27330,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -27637,10 +27348,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -27649,17 +27360,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -27763,8 +27473,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -27854,20 +27570,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -27880,17 +27596,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -27922,7 +27627,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -27931,13 +27636,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -27991,14 +27697,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -28009,7 +27721,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -28022,7 +27734,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -28039,7 +27751,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -28055,7 +27767,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -28099,20 +27811,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -28121,13 +27833,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -28139,10 +27851,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -28151,17 +27863,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -28265,8 +27976,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -28356,20 +28073,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -28382,17 +28099,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -28424,7 +28130,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -28433,13 +28139,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -28493,8 +28200,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -28796,16 +28509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>37042</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>754219</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>147109</xdr:rowOff>
+      <xdr:rowOff>180727</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>64827</xdr:colOff>
+      <xdr:colOff>20004</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>33619</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29643,27 +29356,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:J27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A22" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -29686,7 +29399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -29716,7 +29429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -29745,8 +29458,12 @@
         <f t="shared" ref="I6:I27" si="3">412.0297/H6</f>
         <v>1.2172243141346779</v>
       </c>
+      <c r="J6">
+        <f>H6-H5</f>
+        <v>-73.530300000000011</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -29775,8 +29492,12 @@
         <f t="shared" si="3"/>
         <v>1.4657595502292395</v>
       </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J27" si="4">H7-H6</f>
+        <v>-57.396199999999965</v>
+      </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -29805,8 +29526,12 @@
         <f t="shared" si="3"/>
         <v>1.4129380821091038</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>10.508800000000008</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -29835,8 +29560,12 @@
         <f t="shared" si="3"/>
         <v>1.1680402434564694</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>61.14100000000002</v>
+      </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -29865,8 +29594,12 @@
         <f t="shared" si="3"/>
         <v>1.1684993579388703</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>-0.13860000000005357</v>
+      </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -29895,8 +29628,12 @@
         <f t="shared" si="3"/>
         <v>1.1009948321103906</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>21.619600000000048</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>8</v>
       </c>
@@ -29925,8 +29662,12 @@
         <f t="shared" si="3"/>
         <v>0.91029330540790121</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>78.399999999999977</v>
+      </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>9</v>
       </c>
@@ -29955,8 +29696,12 @@
         <f t="shared" si="3"/>
         <v>0.8531398667541279</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>30.322799999999972</v>
+      </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>10</v>
       </c>
@@ -29985,8 +29730,12 @@
         <f t="shared" si="3"/>
         <v>0.68136067178642534</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>121.75920000000002</v>
+      </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>11</v>
       </c>
@@ -30015,8 +29764,12 @@
         <f t="shared" si="3"/>
         <v>0.54435039370078731</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>152.20400000000006</v>
+      </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>12</v>
       </c>
@@ -30045,8 +29798,12 @@
         <f t="shared" si="3"/>
         <v>0.45074016702438852</v>
       </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>157.19799999999998</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>13</v>
       </c>
@@ -30075,8 +29832,12 @@
         <f t="shared" si="3"/>
         <v>0.42109572246641286</v>
       </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>64.352399999999989</v>
+      </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>14</v>
       </c>
@@ -30105,8 +29866,12 @@
         <f t="shared" si="3"/>
         <v>0.38600920546856926</v>
       </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>88.938599999999838</v>
+      </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>15</v>
       </c>
@@ -30135,8 +29900,12 @@
         <f t="shared" si="3"/>
         <v>0.33579595835126291</v>
       </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>159.61500000000001</v>
+      </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>16</v>
       </c>
@@ -30165,8 +29934,12 @@
         <f t="shared" si="3"/>
         <v>0.29787547678329246</v>
       </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>156.20399999999995</v>
+      </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>17</v>
       </c>
@@ -30195,8 +29968,12 @@
         <f t="shared" si="3"/>
         <v>0.26833585151416478</v>
       </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>152.27200000000016</v>
+      </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>18</v>
       </c>
@@ -30225,8 +30002,12 @@
         <f t="shared" si="3"/>
         <v>0.22331797319943894</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>309.53599999999983</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>19</v>
       </c>
@@ -30255,8 +30036,12 @@
         <f t="shared" si="3"/>
         <v>0.20890678845392538</v>
       </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>127.27760000000012</v>
+      </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>20</v>
       </c>
@@ -30285,8 +30070,12 @@
         <f t="shared" si="3"/>
         <v>0.20630605099097377</v>
       </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>24.863399999999956</v>
+      </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>21</v>
       </c>
@@ -30315,8 +30104,12 @@
         <f t="shared" si="3"/>
         <v>0.19149760784674602</v>
       </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>154.44100000000003</v>
+      </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>22</v>
       </c>
@@ -30345,8 +30138,12 @@
         <f t="shared" si="3"/>
         <v>0.18577208346228233</v>
       </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>66.313200000000052</v>
+      </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>23</v>
       </c>
@@ -30374,6 +30171,10 @@
       <c r="I27" s="12">
         <f t="shared" si="3"/>
         <v>0.10389744951408118</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>1747.8033</v>
       </c>
     </row>
   </sheetData>
@@ -30384,27 +30185,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -30427,7 +30228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -30457,7 +30258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -30487,7 +30288,7 @@
         <v>1.0508896012427429</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -30517,7 +30318,7 @@
         <v>1.3084961502210608</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -30547,7 +30348,7 @@
         <v>1.475835401251433</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -30577,7 +30378,7 @@
         <v>1.4160596332422559</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -30607,7 +30408,7 @@
         <v>1.177553670473618</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -30637,7 +30438,7 @@
         <v>1.0446042420166846</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -30667,7 +30468,7 @@
         <v>0.79823299029207107</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -30697,7 +30498,7 @@
         <v>0.74920497822586696</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -30727,7 +30528,7 @@
         <v>0.6037688299682753</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -30757,7 +30558,7 @@
         <v>0.48388529910716166</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -30787,7 +30588,7 @@
         <v>0.43803621647575275</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -30817,7 +30618,7 @@
         <v>0.42421658002513041</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -30847,7 +30648,7 @@
         <v>0.38349300206575182</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -30877,7 +30678,7 @@
         <v>0.31165231904427265</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -30907,7 +30708,7 @@
         <v>0.28806576751319413</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -30937,7 +30738,7 @@
         <v>0.26322978208897807</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -30967,7 +30768,7 @@
         <v>0.21605127476453392</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -30997,7 +30798,7 @@
         <v>0.20378167319806123</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -31027,7 +30828,7 @@
         <v>0.20068209013226648</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -31057,7 +30858,7 @@
         <v>0.18943544942294457</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -31087,7 +30888,7 @@
         <v>0.18488999471919065</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -31125,27 +30926,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -31168,7 +30969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -31198,7 +30999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>2</v>
       </c>
@@ -31228,7 +31029,7 @@
         <v>0.21461041818756052</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -31258,7 +31059,7 @@
         <v>6.8594885067719061E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -31288,7 +31089,7 @@
         <v>2.863186906172183E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -31318,7 +31119,7 @@
         <v>1.6402181655103279E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -31348,7 +31149,7 @@
         <v>7.2485202573587112E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -31378,7 +31179,7 @@
         <v>5.3900516840554961E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -31408,7 +31209,7 @@
         <v>4.0811131054956486E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -31438,7 +31239,7 @@
         <v>3.3012289702006158E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -31468,7 +31269,7 @@
         <v>2.9706557222356931E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -31498,7 +31299,7 @@
         <v>2.6664510373286101E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -31528,7 +31329,7 @@
         <v>2.4602950561545926E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -31558,7 +31359,7 @@
         <v>2.2801915761396681E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -31588,7 +31389,7 @@
         <v>2.1022854254975644E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -31618,7 +31419,7 @@
         <v>1.9653952364515016E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -31648,7 +31449,7 @@
         <v>1.8966598689732701E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -31678,7 +31479,7 @@
         <v>1.8249094471153512E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -31708,7 +31509,7 @@
         <v>1.7166714179996647E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -31738,7 +31539,7 @@
         <v>1.6445989052677923E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -31768,7 +31569,7 @@
         <v>1.535164566483583E-3</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -31798,7 +31599,7 @@
         <v>1.4656701149455161E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -31828,7 +31629,7 @@
         <v>1.4217680536367907E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -31865,26 +31666,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H111"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L96" sqref="L96"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="6" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
@@ -31895,7 +31696,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -31904,7 +31705,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -31913,10 +31714,10 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
@@ -31924,7 +31725,7 @@
       <c r="D5" s="17"/>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -31936,7 +31737,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <f>'Transactional_read-only'!F5</f>
         <v>99999.608189999999</v>
@@ -31951,7 +31752,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <f>'Transactional_read-only'!F6</f>
         <v>99999.492748000004</v>
@@ -31966,7 +31767,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <f>'Transactional_read-only'!F7</f>
         <v>100001.05788400001</v>
@@ -31981,7 +31782,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <f>'Transactional_read-only'!F8</f>
         <v>100003.96122000001</v>
@@ -31996,7 +31797,7 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="13">
         <f>'Transactional_read-only'!F9</f>
         <v>100009.00303000001</v>
@@ -32011,7 +31812,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="13">
         <f>'Transactional_read-only'!F10</f>
         <v>100380.06355199999</v>
@@ -32026,7 +31827,7 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="13">
         <f>'Transactional_read-only'!F11</f>
         <v>100416.899401</v>
@@ -32041,7 +31842,7 @@
       </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="13">
         <f>'Transactional_read-only'!F12</f>
         <v>100198.07979999999</v>
@@ -32056,7 +31857,7 @@
       </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="13">
         <f>'Transactional_read-only'!F13</f>
         <v>100146.978516</v>
@@ -32071,7 +31872,7 @@
       </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="13">
         <f>'Transactional_read-only'!F14</f>
         <v>100067.798964</v>
@@ -32086,7 +31887,7 @@
       </c>
       <c r="E16" s="15"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="13">
         <f>'Transactional_read-only'!F15</f>
         <v>100036.212424</v>
@@ -32101,7 +31902,7 @@
       </c>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="13">
         <f>'Transactional_read-only'!F16</f>
         <v>100040.15980200001</v>
@@ -32116,7 +31917,7 @@
       </c>
       <c r="E18" s="15"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="13">
         <f>'Transactional_read-only'!F17</f>
         <v>100022.76066600002</v>
@@ -32131,7 +31932,7 @@
       </c>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <f>'Transactional_read-only'!F18</f>
         <v>100028.87972099999</v>
@@ -32146,7 +31947,7 @@
       </c>
       <c r="E20" s="15"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="13">
         <f>'Transactional_read-only'!F19</f>
         <v>100034.205246</v>
@@ -32161,7 +31962,7 @@
       </c>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="13">
         <f>'Transactional_read-only'!F20</f>
         <v>100030.284508</v>
@@ -32176,7 +31977,7 @@
       </c>
       <c r="E22" s="15"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="13">
         <f>'Transactional_read-only'!F21</f>
         <v>100041.04955</v>
@@ -32191,7 +31992,7 @@
       </c>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="13">
         <f>'Transactional_read-only'!F22</f>
         <v>100055.22600899999</v>
@@ -32206,7 +32007,7 @@
       </c>
       <c r="E24" s="15"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="13">
         <f>'Transactional_read-only'!F23</f>
         <v>100051.77084</v>
@@ -32221,7 +32022,7 @@
       </c>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="13">
         <f>'Transactional_read-only'!F24</f>
         <v>100041.822139</v>
@@ -32236,7 +32037,7 @@
       </c>
       <c r="E26" s="15"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="13">
         <f>'Transactional_read-only'!F25</f>
         <v>100035.021987</v>
@@ -32251,7 +32052,7 @@
       </c>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="13">
         <f>'Transactional_read-only'!F26</f>
         <v>100027.002867</v>
@@ -32266,7 +32067,7 @@
       </c>
       <c r="E28" s="15"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="13">
         <f>'Transactional_read-only'!F27</f>
         <v>100032.620142</v>
@@ -32281,14 +32082,14 @@
       </c>
       <c r="E29" s="15"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>7</v>
       </c>
@@ -32299,7 +32100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="13">
         <f>'Transactional_read-only'!G5</f>
         <v>1</v>
@@ -32313,7 +32114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="13">
         <f>'Transactional_read-only'!G6</f>
         <v>2.4344486282693558</v>
@@ -32327,7 +32128,7 @@
         <v>0.42922083637512104</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="13">
         <f>'Transactional_read-only'!G7</f>
         <v>5.8630382009169582</v>
@@ -32341,7 +32142,7 @@
         <v>0.20578465520315717</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="13">
         <f>'Transactional_read-only'!G8</f>
         <v>11.30350465687283</v>
@@ -32355,7 +32156,7 @@
         <v>0.11452747624688732</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="13">
         <f>'Transactional_read-only'!G9</f>
         <v>11.680402434564694</v>
@@ -32369,7 +32170,7 @@
         <v>8.2010908275516409E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="13">
         <f>'Transactional_read-only'!G10</f>
         <v>18.695989727021924</v>
@@ -32383,7 +32184,7 @@
         <v>4.3491121544152272E-2</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="13">
         <f>'Transactional_read-only'!G11</f>
         <v>22.019896642207815</v>
@@ -32397,7 +32198,7 @@
         <v>3.7730361788388476E-2</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="13">
         <f>'Transactional_read-only'!G12</f>
         <v>27.30879916223704</v>
@@ -32411,7 +32212,7 @@
         <v>3.2648904843965189E-2</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="13">
         <f>'Transactional_read-only'!G13</f>
         <v>27.300475736132093</v>
@@ -32425,7 +32226,7 @@
         <v>2.9711060731805541E-2</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="13">
         <f>'Transactional_read-only'!G14</f>
         <v>27.254426871457014</v>
@@ -32439,7 +32240,7 @@
         <v>2.9706557222356936E-2</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="13">
         <f>'Transactional_read-only'!G15</f>
         <v>27.217519685039367</v>
@@ -32453,7 +32254,7 @@
         <v>2.9330961410614712E-2</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="13">
         <f>'Transactional_read-only'!G16</f>
         <v>27.04441002146331</v>
@@ -32467,7 +32268,7 @@
         <v>2.9523540673855115E-2</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="13">
         <f>'Transactional_read-only'!G17</f>
         <v>26.950126237850423</v>
@@ -32481,7 +32282,7 @@
         <v>2.9642490489815689E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="13">
         <f>'Transactional_read-only'!G18</f>
         <v>27.020644382799844</v>
@@ -32495,7 +32296,7 @@
         <v>2.9431995956965901E-2</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="13">
         <f>'Transactional_read-only'!G19</f>
         <v>26.863676668101032</v>
@@ -32509,7 +32310,7 @@
         <v>2.9480928546772527E-2</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="13">
         <f>'Transactional_read-only'!G20</f>
         <v>26.808792910496319</v>
@@ -32523,7 +32324,7 @@
         <v>3.0346557903572321E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="13">
         <f>'Transactional_read-only'!G21</f>
         <v>26.833585151416475</v>
@@ -32537,7 +32338,7 @@
         <v>3.1023460600960971E-2</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="13">
         <f>'Transactional_read-only'!G22</f>
         <v>26.798156783932672</v>
@@ -32551,7 +32352,7 @@
         <v>3.0900085523993967E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="13">
         <f>'Transactional_read-only'!G23</f>
         <v>26.740068922102449</v>
@@ -32565,7 +32366,7 @@
         <v>3.1247379200088053E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="13">
         <f>'Transactional_read-only'!G24</f>
         <v>26.819786628826588</v>
@@ -32579,7 +32380,7 @@
         <v>3.0703291329671659E-2</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="13">
         <f>'Transactional_read-only'!G25</f>
         <v>26.809665098544443</v>
@@ -32593,7 +32394,7 @@
         <v>3.0779072413855836E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="13">
         <f>'Transactional_read-only'!G26</f>
         <v>26.751180018568654</v>
@@ -32607,7 +32408,7 @@
         <v>3.1278897180009396E-2</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="13">
         <f>'Transactional_read-only'!G27</f>
         <v>26.493849626090704</v>
@@ -32621,14 +32422,14 @@
         <v>3.1674381605595409E-2</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>7</v>
       </c>
@@ -32639,7 +32440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="13">
         <f>'Transactional_read-only'!H5</f>
         <v>412.02969999999999</v>
@@ -32653,7 +32454,7 @@
         <v>4974.0600000000004</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="13">
         <f>'Transactional_read-only'!H6</f>
         <v>338.49939999999998</v>
@@ -32667,7 +32468,7 @@
         <v>23177.16</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="13">
         <f>'Transactional_read-only'!H7</f>
         <v>281.10320000000002</v>
@@ -32681,7 +32482,7 @@
         <v>72513.569999999992</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="13">
         <f>'Transactional_read-only'!H8</f>
         <v>291.61200000000002</v>
@@ -32695,7 +32496,7 @@
         <v>173724.6</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="13">
         <f>'Transactional_read-only'!H9</f>
         <v>352.75300000000004</v>
@@ -32709,7 +32510,7 @@
         <v>303256</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="13">
         <f>'Transactional_read-only'!H10</f>
         <v>352.61439999999999</v>
@@ -32723,7 +32524,7 @@
         <v>686217.3</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="13">
         <f>'Transactional_read-only'!H11</f>
         <v>374.23400000000004</v>
@@ -32737,7 +32538,7 @@
         <v>922822.32000000007</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="13">
         <f>'Transactional_read-only'!H12</f>
         <v>452.63400000000001</v>
@@ -32751,7 +32552,7 @@
         <v>1218799.8400000001</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="13">
         <f>'Transactional_read-only'!H13</f>
         <v>482.95679999999999</v>
@@ -32765,7 +32566,7 @@
         <v>1506729.78</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="13">
         <f>'Transactional_read-only'!H14</f>
         <v>604.71600000000001</v>
@@ -32779,7 +32580,7 @@
         <v>1674398</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="13">
         <f>'Transactional_read-only'!H15</f>
         <v>756.92000000000007</v>
@@ -32793,7 +32594,7 @@
         <v>1865423.34</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="13">
         <f>'Transactional_read-only'!H16</f>
         <v>914.11800000000005</v>
@@ -32807,7 +32608,7 @@
         <v>2021733.12</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="13">
         <f>'Transactional_read-only'!H17</f>
         <v>978.47040000000004</v>
@@ -32821,7 +32622,7 @@
         <v>2181421.9700000002</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="13">
         <f>'Transactional_read-only'!H18</f>
         <v>1067.4089999999999</v>
@@ -32835,7 +32636,7 @@
         <v>2366025.06</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="13">
         <f>'Transactional_read-only'!H19</f>
         <v>1227.0239999999999</v>
@@ -32849,7 +32650,7 @@
         <v>2530819.2000000002</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="13">
         <f>'Transactional_read-only'!H20</f>
         <v>1383.2279999999998</v>
@@ -32863,7 +32664,7 @@
         <v>2622536.64</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="13">
         <f>'Transactional_read-only'!H21</f>
         <v>1535.5</v>
@@ -32877,7 +32678,7 @@
         <v>2725647.57</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="13">
         <f>'Transactional_read-only'!H22</f>
         <v>1845.0359999999998</v>
@@ -32891,7 +32692,7 @@
         <v>2897502.66</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="13">
         <f>'Transactional_read-only'!H23</f>
         <v>1972.3136</v>
@@ -32905,7 +32706,7 @@
         <v>3024482.13</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="13">
         <f>'Transactional_read-only'!H24</f>
         <v>1997.1769999999999</v>
@@ -32919,7 +32720,7 @@
         <v>3240082.6</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="13">
         <f>'Transactional_read-only'!H25</f>
         <v>2151.6179999999999</v>
@@ -32933,7 +32734,7 @@
         <v>3393710.46</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="13">
         <f>'Transactional_read-only'!H26</f>
         <v>2217.9312</v>
@@ -32947,7 +32748,7 @@
         <v>3498503.1399999997</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="13">
         <f>'Transactional_read-only'!H27</f>
         <v>3965.7345</v>
@@ -32961,14 +32762,14 @@
         <v>3611858.3600000003</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="17" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="17"/>
       <c r="D87" s="17"/>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>7</v>
       </c>
@@ -32979,7 +32780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="13">
         <f>'Transactional_read-only'!I5</f>
         <v>1</v>
@@ -32993,7 +32794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="13">
         <f>'Transactional_read-only'!I6</f>
         <v>1.2172243141346779</v>
@@ -33007,7 +32808,7 @@
         <v>0.21461041818756052</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="13">
         <f>'Transactional_read-only'!I7</f>
         <v>1.4657595502292395</v>
@@ -33021,7 +32822,7 @@
         <v>6.8594885067719061E-2</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="13">
         <f>'Transactional_read-only'!I8</f>
         <v>1.4129380821091038</v>
@@ -33035,7 +32836,7 @@
         <v>2.863186906172183E-2</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="13">
         <f>'Transactional_read-only'!I9</f>
         <v>1.1680402434564694</v>
@@ -33049,7 +32850,7 @@
         <v>1.6402181655103279E-2</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="13">
         <f>'Transactional_read-only'!I10</f>
         <v>1.1684993579388703</v>
@@ -33063,7 +32864,7 @@
         <v>7.2485202573587112E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="13">
         <f>'Transactional_read-only'!I11</f>
         <v>1.1009948321103906</v>
@@ -33077,7 +32878,7 @@
         <v>5.3900516840554961E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="13">
         <f>'Transactional_read-only'!I12</f>
         <v>0.91029330540790121</v>
@@ -33091,7 +32892,7 @@
         <v>4.0811131054956486E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="13">
         <f>'Transactional_read-only'!I13</f>
         <v>0.8531398667541279</v>
@@ -33105,7 +32906,7 @@
         <v>3.3012289702006158E-3</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="13">
         <f>'Transactional_read-only'!I14</f>
         <v>0.68136067178642534</v>
@@ -33119,7 +32920,7 @@
         <v>2.9706557222356931E-3</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="13">
         <f>'Transactional_read-only'!I15</f>
         <v>0.54435039370078731</v>
@@ -33133,7 +32934,7 @@
         <v>2.6664510373286101E-3</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="13">
         <f>'Transactional_read-only'!I16</f>
         <v>0.45074016702438852</v>
@@ -33147,7 +32948,7 @@
         <v>2.4602950561545926E-3</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="13">
         <f>'Transactional_read-only'!I17</f>
         <v>0.42109572246641286</v>
@@ -33161,7 +32962,7 @@
         <v>2.2801915761396681E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="13">
         <f>'Transactional_read-only'!I18</f>
         <v>0.38600920546856926</v>
@@ -33175,7 +32976,7 @@
         <v>2.1022854254975644E-3</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="13">
         <f>'Transactional_read-only'!I19</f>
         <v>0.33579595835126291</v>
@@ -33189,7 +32990,7 @@
         <v>1.9653952364515016E-3</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="13">
         <f>'Transactional_read-only'!I20</f>
         <v>0.29787547678329246</v>
@@ -33203,7 +33004,7 @@
         <v>1.8966598689732701E-3</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="13">
         <f>'Transactional_read-only'!I21</f>
         <v>0.26833585151416478</v>
@@ -33217,7 +33018,7 @@
         <v>1.8249094471153512E-3</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="13">
         <f>'Transactional_read-only'!I22</f>
         <v>0.22331797319943894</v>
@@ -33231,7 +33032,7 @@
         <v>1.7166714179996647E-3</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="13">
         <f>'Transactional_read-only'!I23</f>
         <v>0.20890678845392538</v>
@@ -33245,7 +33046,7 @@
         <v>1.6445989052677923E-3</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="13">
         <f>'Transactional_read-only'!I24</f>
         <v>0.20630605099097377</v>
@@ -33259,7 +33060,7 @@
         <v>1.535164566483583E-3</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="13">
         <f>'Transactional_read-only'!I25</f>
         <v>0.19149760784674602</v>
@@ -33273,7 +33074,7 @@
         <v>1.4656701149455161E-3</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="13">
         <f>'Transactional_read-only'!I26</f>
         <v>0.18577208346228233</v>
@@ -33287,7 +33088,7 @@
         <v>1.4217680536367907E-3</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="13">
         <f>'Transactional_read-only'!I27</f>
         <v>0.10389744951408118</v>
